--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23107.84710074862</v>
+        <v>23440.85457273148</v>
       </c>
       <c r="AB2" t="n">
-        <v>31617.17584951144</v>
+        <v>32072.81136393125</v>
       </c>
       <c r="AC2" t="n">
-        <v>28599.67696141775</v>
+        <v>29011.82726182976</v>
       </c>
       <c r="AD2" t="n">
-        <v>23107847.10074861</v>
+        <v>23440854.57273148</v>
       </c>
       <c r="AE2" t="n">
-        <v>31617175.84951144</v>
+        <v>32072811.36393125</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330541479948139e-07</v>
+        <v>5.630445620668113e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.84305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>28599676.96141775</v>
+        <v>29011827.26182976</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7632.397625114088</v>
+        <v>7798.944121041361</v>
       </c>
       <c r="AB3" t="n">
-        <v>10442.98314830057</v>
+        <v>10670.85941154112</v>
       </c>
       <c r="AC3" t="n">
-        <v>9446.319493445275</v>
+        <v>9652.44756594848</v>
       </c>
       <c r="AD3" t="n">
-        <v>7632397.625114088</v>
+        <v>7798944.12104136</v>
       </c>
       <c r="AE3" t="n">
-        <v>10442983.14830057</v>
+        <v>10670859.41154112</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.286159981207416e-07</v>
+        <v>1.06270653436088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>9446319.493445275</v>
+        <v>9652447.565948479</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5830.118977958116</v>
+        <v>5975.751164621658</v>
       </c>
       <c r="AB4" t="n">
-        <v>7977.025992339322</v>
+        <v>8176.286374971023</v>
       </c>
       <c r="AC4" t="n">
-        <v>7215.709827456453</v>
+        <v>7395.95307883348</v>
       </c>
       <c r="AD4" t="n">
-        <v>5830118.977958117</v>
+        <v>5975751.164621658</v>
       </c>
       <c r="AE4" t="n">
-        <v>7977025.992339322</v>
+        <v>8176286.374971023</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.377375498947763e-07</v>
+        <v>1.247181931831741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>7215709.827456453</v>
+        <v>7395953.078833479</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5124.703574801955</v>
+        <v>5259.921277260913</v>
       </c>
       <c r="AB5" t="n">
-        <v>7011.845517009809</v>
+        <v>7196.856342898184</v>
       </c>
       <c r="AC5" t="n">
-        <v>6342.64482205312</v>
+        <v>6509.998474383026</v>
       </c>
       <c r="AD5" t="n">
-        <v>5124703.574801955</v>
+        <v>5259921.277260914</v>
       </c>
       <c r="AE5" t="n">
-        <v>7011845.517009809</v>
+        <v>7196856.342898184</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.953618987594068e-07</v>
+        <v>1.34459875268868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.47361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>6342644.82205312</v>
+        <v>6509998.474383026</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4730.575737261104</v>
+        <v>4855.464296370054</v>
       </c>
       <c r="AB6" t="n">
-        <v>6472.582421993357</v>
+        <v>6643.460458260605</v>
       </c>
       <c r="AC6" t="n">
-        <v>5854.84823996455</v>
+        <v>6009.417916279276</v>
       </c>
       <c r="AD6" t="n">
-        <v>4730575.737261104</v>
+        <v>4855464.296370055</v>
       </c>
       <c r="AE6" t="n">
-        <v>6472582.421993357</v>
+        <v>6643460.458260605</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.316871212082498e-07</v>
+        <v>1.40600834355799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.3625</v>
       </c>
       <c r="AH6" t="n">
-        <v>5854848.23996455</v>
+        <v>6009417.916279276</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4467.806737687683</v>
+        <v>4592.780548142654</v>
       </c>
       <c r="AB7" t="n">
-        <v>6113.050284226881</v>
+        <v>6284.044965146778</v>
       </c>
       <c r="AC7" t="n">
-        <v>5529.629344819998</v>
+        <v>5684.304533385434</v>
       </c>
       <c r="AD7" t="n">
-        <v>4467806.737687684</v>
+        <v>4592780.548142654</v>
       </c>
       <c r="AE7" t="n">
-        <v>6113050.28422688</v>
+        <v>6284044.965146778</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.563415894566612e-07</v>
+        <v>1.447687945392984e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.66111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>5529629.344819997</v>
+        <v>5684304.533385434</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4277.813564042222</v>
+        <v>4402.616782296601</v>
       </c>
       <c r="AB8" t="n">
-        <v>5853.093242137891</v>
+        <v>6023.854511282942</v>
       </c>
       <c r="AC8" t="n">
-        <v>5294.482237975991</v>
+        <v>5448.946291258776</v>
       </c>
       <c r="AD8" t="n">
-        <v>4277813.564042223</v>
+        <v>4402616.782296601</v>
       </c>
       <c r="AE8" t="n">
-        <v>5853093.242137891</v>
+        <v>6023854.511282941</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.747230273223409e-07</v>
+        <v>1.478762678122033e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.16111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>5294482.23797599</v>
+        <v>5448946.291258776</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4121.810918042481</v>
+        <v>4246.699387642879</v>
       </c>
       <c r="AB9" t="n">
-        <v>5639.643539530022</v>
+        <v>5810.521453327722</v>
       </c>
       <c r="AC9" t="n">
-        <v>5101.403875406483</v>
+        <v>5255.973440939983</v>
       </c>
       <c r="AD9" t="n">
-        <v>4121810.918042481</v>
+        <v>4246699.387642879</v>
       </c>
       <c r="AE9" t="n">
-        <v>5639643.539530022</v>
+        <v>5810521.453327722</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.884361635078479e-07</v>
+        <v>1.501945415237355e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.80694444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>5101403.875406483</v>
+        <v>5255973.440939983</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4002.580112631632</v>
+        <v>4127.468582232031</v>
       </c>
       <c r="AB10" t="n">
-        <v>5476.506691474995</v>
+        <v>5647.384605272693</v>
       </c>
       <c r="AC10" t="n">
-        <v>4953.836579165828</v>
+        <v>5108.406144699328</v>
       </c>
       <c r="AD10" t="n">
-        <v>4002580.112631632</v>
+        <v>4127468.582232031</v>
       </c>
       <c r="AE10" t="n">
-        <v>5476506.691474995</v>
+        <v>5647384.605272693</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.989398422882362e-07</v>
+        <v>1.519702405368239e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.5375</v>
       </c>
       <c r="AH10" t="n">
-        <v>4953836.579165828</v>
+        <v>5108406.144699329</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3887.874781920706</v>
+        <v>4002.348856825073</v>
       </c>
       <c r="AB11" t="n">
-        <v>5319.561797554251</v>
+        <v>5476.190277078174</v>
       </c>
       <c r="AC11" t="n">
-        <v>4811.870285647346</v>
+        <v>4953.550362914953</v>
       </c>
       <c r="AD11" t="n">
-        <v>3887874.781920705</v>
+        <v>4002348.856825073</v>
       </c>
       <c r="AE11" t="n">
-        <v>5319561.797554251</v>
+        <v>5476190.277078174</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.082764456485815e-07</v>
+        <v>1.535486396595693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.30972222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>4811870.285647346</v>
+        <v>4953550.362914952</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3798.295776418093</v>
+        <v>3912.769851322461</v>
       </c>
       <c r="AB12" t="n">
-        <v>5196.995850278762</v>
+        <v>5353.624329802686</v>
       </c>
       <c r="AC12" t="n">
-        <v>4701.001860357446</v>
+        <v>4842.681937625052</v>
       </c>
       <c r="AD12" t="n">
-        <v>3798295.776418093</v>
+        <v>3912769.851322461</v>
       </c>
       <c r="AE12" t="n">
-        <v>5196995.850278762</v>
+        <v>5353624.329802685</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.146953604588188e-07</v>
+        <v>1.546337890564567e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.15</v>
       </c>
       <c r="AH12" t="n">
-        <v>4701001.860357447</v>
+        <v>4842681.937625052</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3686.751259563793</v>
+        <v>3811.554388309619</v>
       </c>
       <c r="AB13" t="n">
-        <v>5044.375721321923</v>
+        <v>5215.136867997425</v>
       </c>
       <c r="AC13" t="n">
-        <v>4562.947582304559</v>
+        <v>4717.41152480612</v>
       </c>
       <c r="AD13" t="n">
-        <v>3686751.259563793</v>
+        <v>3811554.388309619</v>
       </c>
       <c r="AE13" t="n">
-        <v>5044375.721321924</v>
+        <v>5215136.867997425</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.215519285515723e-07</v>
+        <v>1.557929259122228e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.98611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>4562947.582304559</v>
+        <v>4717411.52480612</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3601.530912708763</v>
+        <v>3726.33404145459</v>
       </c>
       <c r="AB14" t="n">
-        <v>4927.773483098505</v>
+        <v>5098.534629774006</v>
       </c>
       <c r="AC14" t="n">
-        <v>4457.473698044918</v>
+        <v>4611.937640546478</v>
       </c>
       <c r="AD14" t="n">
-        <v>3601530.912708763</v>
+        <v>3726334.041454589</v>
       </c>
       <c r="AE14" t="n">
-        <v>4927773.483098504</v>
+        <v>5098534.629774006</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.268037679417665e-07</v>
+        <v>1.566807754187671e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.86111111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>4457473.698044918</v>
+        <v>4611937.640546478</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3533.105514781205</v>
+        <v>3647.664841031594</v>
       </c>
       <c r="AB15" t="n">
-        <v>4834.150834938508</v>
+        <v>4990.89595911508</v>
       </c>
       <c r="AC15" t="n">
-        <v>4372.786264025103</v>
+        <v>4514.571853543422</v>
       </c>
       <c r="AD15" t="n">
-        <v>3533105.514781205</v>
+        <v>3647664.841031594</v>
       </c>
       <c r="AE15" t="n">
-        <v>4834150.834938508</v>
+        <v>4990895.95911508</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.304508786294013e-07</v>
+        <v>1.572973375760895e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>4372786.264025103</v>
+        <v>4514571.853543421</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3505.297122712635</v>
+        <v>3619.856448963023</v>
       </c>
       <c r="AB16" t="n">
-        <v>4796.102166090614</v>
+        <v>4952.847290267187</v>
       </c>
       <c r="AC16" t="n">
-        <v>4338.368906730411</v>
+        <v>4480.15449624873</v>
       </c>
       <c r="AD16" t="n">
-        <v>3505297.122712635</v>
+        <v>3619856.448963023</v>
       </c>
       <c r="AE16" t="n">
-        <v>4796102.166090614</v>
+        <v>4952847.290267186</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.32201491759466e-07</v>
+        <v>1.575932874116042e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.73472222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>4338368.906730412</v>
+        <v>4480154.49624873</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3503.781123567711</v>
+        <v>3618.340449818101</v>
       </c>
       <c r="AB17" t="n">
-        <v>4794.027909179368</v>
+        <v>4950.773033355941</v>
       </c>
       <c r="AC17" t="n">
-        <v>4336.492613987538</v>
+        <v>4478.278203505856</v>
       </c>
       <c r="AD17" t="n">
-        <v>3503781.123567712</v>
+        <v>3618340.449818101</v>
       </c>
       <c r="AE17" t="n">
-        <v>4794027.909179368</v>
+        <v>4950773.033355941</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.576919373567758e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>4336492.613987538</v>
+        <v>4478278.203505856</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3520.013306203304</v>
+        <v>3634.572632453693</v>
       </c>
       <c r="AB18" t="n">
-        <v>4816.237497574743</v>
+        <v>4972.982621751315</v>
       </c>
       <c r="AC18" t="n">
-        <v>4356.582550437811</v>
+        <v>4498.368139956129</v>
       </c>
       <c r="AD18" t="n">
-        <v>3520013.306203304</v>
+        <v>3634572.632453693</v>
       </c>
       <c r="AE18" t="n">
-        <v>4816237.497574744</v>
+        <v>4972982.621751316</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.576919373567758e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>4356582.550437811</v>
+        <v>4498368.139956129</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13835.79811841134</v>
+        <v>14087.8916327987</v>
       </c>
       <c r="AB2" t="n">
-        <v>18930.74937794513</v>
+        <v>19275.67484591087</v>
       </c>
       <c r="AC2" t="n">
-        <v>17124.02522678696</v>
+        <v>17436.03149219597</v>
       </c>
       <c r="AD2" t="n">
-        <v>13835798.11841134</v>
+        <v>14087891.6327987</v>
       </c>
       <c r="AE2" t="n">
-        <v>18930749.37794513</v>
+        <v>19275674.84591087</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.382583193081255e-07</v>
+        <v>7.589718163324665e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.83055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>17124025.22678696</v>
+        <v>17436031.49219597</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5954.175156336572</v>
+        <v>6105.533673994474</v>
       </c>
       <c r="AB3" t="n">
-        <v>8146.76512856906</v>
+        <v>8353.860529895139</v>
       </c>
       <c r="AC3" t="n">
-        <v>7369.249298754792</v>
+        <v>7556.579805638525</v>
       </c>
       <c r="AD3" t="n">
-        <v>5954175.156336572</v>
+        <v>6105533.673994474</v>
       </c>
       <c r="AE3" t="n">
-        <v>8146765.12856906</v>
+        <v>8353860.529895139</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.097551224883314e-07</v>
+        <v>1.229147538640355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.52916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>7369249.298754792</v>
+        <v>7556579.805638525</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4742.718545620375</v>
+        <v>4883.815813725274</v>
       </c>
       <c r="AB4" t="n">
-        <v>6489.196748093408</v>
+        <v>6682.252255086689</v>
       </c>
       <c r="AC4" t="n">
-        <v>5869.876918099966</v>
+        <v>6044.507478460905</v>
       </c>
       <c r="AD4" t="n">
-        <v>4742718.545620375</v>
+        <v>4883815.813725274</v>
       </c>
       <c r="AE4" t="n">
-        <v>6489196.748093409</v>
+        <v>6682252.255086689</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.081519627737646e-07</v>
+        <v>1.399550301811418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.93611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>5869876.918099966</v>
+        <v>6044507.478460905</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4233.261807257207</v>
+        <v>4354.263370037509</v>
       </c>
       <c r="AB5" t="n">
-        <v>5792.135563019839</v>
+        <v>5957.695239428052</v>
       </c>
       <c r="AC5" t="n">
-        <v>5239.342274198324</v>
+        <v>5389.101167454599</v>
       </c>
       <c r="AD5" t="n">
-        <v>4233261.807257207</v>
+        <v>4354263.370037509</v>
       </c>
       <c r="AE5" t="n">
-        <v>5792135.563019838</v>
+        <v>5957695.239428052</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.59614113904643e-07</v>
+        <v>1.488671992365609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.38194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>5239342.274198324</v>
+        <v>5389101.167454598</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3926.777684587218</v>
+        <v>4047.86449871354</v>
       </c>
       <c r="AB6" t="n">
-        <v>5372.790465257515</v>
+        <v>5538.466786318379</v>
       </c>
       <c r="AC6" t="n">
-        <v>4860.018884011914</v>
+        <v>5009.883289518899</v>
       </c>
       <c r="AD6" t="n">
-        <v>3926777.684587218</v>
+        <v>4047864.49871354</v>
       </c>
       <c r="AE6" t="n">
-        <v>5372790.465257515</v>
+        <v>5538466.786318379</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.916081785373298e-07</v>
+        <v>1.544079025789329e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.50833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4860018.884011914</v>
+        <v>5009883.289518899</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3709.090941565475</v>
+        <v>3830.092414837226</v>
       </c>
       <c r="AB7" t="n">
-        <v>5074.941859793839</v>
+        <v>5240.501413732505</v>
       </c>
       <c r="AC7" t="n">
-        <v>4590.596531420558</v>
+        <v>4740.355313895607</v>
       </c>
       <c r="AD7" t="n">
-        <v>3709090.941565474</v>
+        <v>3830092.414837225</v>
       </c>
       <c r="AE7" t="n">
-        <v>5074941.859793839</v>
+        <v>5240501.413732505</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.134909114228939e-07</v>
+        <v>1.581975345819704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.94583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>4590596.531420558</v>
+        <v>4740355.313895606</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3546.263630388257</v>
+        <v>3667.265103660007</v>
       </c>
       <c r="AB8" t="n">
-        <v>4852.154349207169</v>
+        <v>5017.713903145836</v>
       </c>
       <c r="AC8" t="n">
-        <v>4389.071548160052</v>
+        <v>4538.830330635101</v>
       </c>
       <c r="AD8" t="n">
-        <v>3546263.630388257</v>
+        <v>3667265.103660007</v>
       </c>
       <c r="AE8" t="n">
-        <v>4852154.349207168</v>
+        <v>5017713.903145836</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.294879437392374e-07</v>
+        <v>1.609678862531564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.55138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>4389071.548160052</v>
+        <v>4538830.330635101</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3407.968922207557</v>
+        <v>3518.879917143999</v>
       </c>
       <c r="AB9" t="n">
-        <v>4662.933428342397</v>
+        <v>4814.686744662206</v>
       </c>
       <c r="AC9" t="n">
-        <v>4217.909606409392</v>
+        <v>4355.17979920675</v>
       </c>
       <c r="AD9" t="n">
-        <v>3407968.922207557</v>
+        <v>3518879.917143999</v>
       </c>
       <c r="AE9" t="n">
-        <v>4662933.428342396</v>
+        <v>4814686.744662207</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.417120910753111e-07</v>
+        <v>1.630848530962324e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.25833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4217909.606409392</v>
+        <v>4355179.79920675</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3283.816855551467</v>
+        <v>3394.727850487909</v>
       </c>
       <c r="AB10" t="n">
-        <v>4493.063093540905</v>
+        <v>4644.816409860716</v>
       </c>
       <c r="AC10" t="n">
-        <v>4064.251457946849</v>
+        <v>4201.521650744208</v>
       </c>
       <c r="AD10" t="n">
-        <v>3283816.855551467</v>
+        <v>3394727.850487909</v>
       </c>
       <c r="AE10" t="n">
-        <v>4493063.093540905</v>
+        <v>4644816.409860716</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.509179304271691e-07</v>
+        <v>1.646791120768206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.04305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>4064251.457946849</v>
+        <v>4201521.650744208</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3174.938720400123</v>
+        <v>3295.854852817301</v>
       </c>
       <c r="AB11" t="n">
-        <v>4344.091225662508</v>
+        <v>4509.534012478977</v>
       </c>
       <c r="AC11" t="n">
-        <v>3929.497256055442</v>
+        <v>4079.150415498551</v>
       </c>
       <c r="AD11" t="n">
-        <v>3174938.720400123</v>
+        <v>3295854.852817301</v>
       </c>
       <c r="AE11" t="n">
-        <v>4344091.225662508</v>
+        <v>4509534.012478977</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.578600387908654e-07</v>
+        <v>1.658813401605429e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.88194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>3929497.256055442</v>
+        <v>4079150.415498551</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3158.872630178435</v>
+        <v>3279.788762595613</v>
       </c>
       <c r="AB12" t="n">
-        <v>4322.108892235316</v>
+        <v>4487.551679051785</v>
       </c>
       <c r="AC12" t="n">
-        <v>3909.612885678143</v>
+        <v>4059.266045121252</v>
       </c>
       <c r="AD12" t="n">
-        <v>3158872.630178435</v>
+        <v>3279788.762595613</v>
       </c>
       <c r="AE12" t="n">
-        <v>4322108.892235316</v>
+        <v>4487551.679051785</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.593691927829732e-07</v>
+        <v>1.661426940917868e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.84861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>3909612.885678143</v>
+        <v>4059266.045121253</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3171.341807018522</v>
+        <v>3292.257939435701</v>
       </c>
       <c r="AB13" t="n">
-        <v>4339.169770089183</v>
+        <v>4504.612556905651</v>
       </c>
       <c r="AC13" t="n">
-        <v>3925.045497294729</v>
+        <v>4074.698656737838</v>
       </c>
       <c r="AD13" t="n">
-        <v>3171341.807018522</v>
+        <v>3292257.939435701</v>
       </c>
       <c r="AE13" t="n">
-        <v>4339169.770089183</v>
+        <v>4504612.556905651</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.590673619845516e-07</v>
+        <v>1.66090423305538e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.85277777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>3925045.497294729</v>
+        <v>4074698.656737838</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4388.655882253276</v>
+        <v>4534.245799001557</v>
       </c>
       <c r="AB2" t="n">
-        <v>6004.752591932221</v>
+        <v>6203.955139001049</v>
       </c>
       <c r="AC2" t="n">
-        <v>5431.667432281178</v>
+        <v>5611.858367840279</v>
       </c>
       <c r="AD2" t="n">
-        <v>4388655.882253276</v>
+        <v>4534245.799001558</v>
       </c>
       <c r="AE2" t="n">
-        <v>6004752.59193222</v>
+        <v>6203955.139001049</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.677337787611568e-07</v>
+        <v>1.452717517832646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.46527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>5431667.432281177</v>
+        <v>5611858.367840279</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2826.655638963361</v>
+        <v>2935.954774969924</v>
       </c>
       <c r="AB3" t="n">
-        <v>3867.554948475569</v>
+        <v>4017.102848297323</v>
       </c>
       <c r="AC3" t="n">
-        <v>3498.440932340377</v>
+        <v>3633.716190494933</v>
       </c>
       <c r="AD3" t="n">
-        <v>2826655.638963361</v>
+        <v>2935954.774969924</v>
       </c>
       <c r="AE3" t="n">
-        <v>3867554.948475569</v>
+        <v>4017102.848297324</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.607197209546829e-07</v>
+        <v>1.817888449053574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.34444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3498440.932340377</v>
+        <v>3633716.190494933</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2390.541815194217</v>
+        <v>2499.84086169223</v>
       </c>
       <c r="AB4" t="n">
-        <v>3270.844774810577</v>
+        <v>3420.392552162784</v>
       </c>
       <c r="AC4" t="n">
-        <v>2958.679940162006</v>
+        <v>3093.955087535336</v>
       </c>
       <c r="AD4" t="n">
-        <v>2390541.815194217</v>
+        <v>2499840.86169223</v>
       </c>
       <c r="AE4" t="n">
-        <v>3270844.774810577</v>
+        <v>3420392.552162784</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023701171548382e-06</v>
+        <v>1.937062906537542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.84861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2958679.940162006</v>
+        <v>3093955.087535336</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2369.425585621578</v>
+        <v>2478.72463211959</v>
       </c>
       <c r="AB5" t="n">
-        <v>3241.952617926989</v>
+        <v>3391.500395279196</v>
       </c>
       <c r="AC5" t="n">
-        <v>2932.545210180992</v>
+        <v>3067.820357554322</v>
       </c>
       <c r="AD5" t="n">
-        <v>2369425.585621578</v>
+        <v>2478724.63211959</v>
       </c>
       <c r="AE5" t="n">
-        <v>3241952.617926989</v>
+        <v>3391500.395279196</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029089958764955e-06</v>
+        <v>1.947259651562908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.72638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2932545.210180992</v>
+        <v>3067820.357554322</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6668.120871167162</v>
+        <v>6838.889632988074</v>
       </c>
       <c r="AB2" t="n">
-        <v>9123.617152662318</v>
+        <v>9357.270506371768</v>
       </c>
       <c r="AC2" t="n">
-        <v>8252.871936688978</v>
+        <v>8464.225742254932</v>
       </c>
       <c r="AD2" t="n">
-        <v>6668120.871167162</v>
+        <v>6838889.632988075</v>
       </c>
       <c r="AE2" t="n">
-        <v>9123617.152662318</v>
+        <v>9357270.506371768</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350662682438717e-07</v>
+        <v>1.156952820363196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8252871.936688978</v>
+        <v>8464225.742254931</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3837.706633377566</v>
+        <v>3961.077582158187</v>
       </c>
       <c r="AB3" t="n">
-        <v>5250.919523455013</v>
+        <v>5419.721098318801</v>
       </c>
       <c r="AC3" t="n">
-        <v>4749.779133848107</v>
+        <v>4902.470523321384</v>
       </c>
       <c r="AD3" t="n">
-        <v>3837706.633377566</v>
+        <v>3961077.582158187</v>
       </c>
       <c r="AE3" t="n">
-        <v>5250919.523455014</v>
+        <v>5419721.0983188</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.604487414232672e-07</v>
+        <v>1.567550739107009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>4749779.133848106</v>
+        <v>4902470.523321385</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3205.490545806882</v>
+        <v>3328.77606422438</v>
       </c>
       <c r="AB4" t="n">
-        <v>4385.893581035447</v>
+        <v>4554.578266307489</v>
       </c>
       <c r="AC4" t="n">
-        <v>3967.310053301561</v>
+        <v>4119.895708961675</v>
       </c>
       <c r="AD4" t="n">
-        <v>3205490.545806882</v>
+        <v>3328776.06422438</v>
       </c>
       <c r="AE4" t="n">
-        <v>4385893.581035447</v>
+        <v>4554578.266307489</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.387445827136074e-07</v>
+        <v>1.710188758055897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.83611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3967310.053301561</v>
+        <v>4119895.708961675</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2873.733261133742</v>
+        <v>2987.607489626839</v>
       </c>
       <c r="AB5" t="n">
-        <v>3931.968628047196</v>
+        <v>4087.776371247862</v>
       </c>
       <c r="AC5" t="n">
-        <v>3556.707060738853</v>
+        <v>3697.644731605983</v>
       </c>
       <c r="AD5" t="n">
-        <v>2873733.261133742</v>
+        <v>2987607.489626839</v>
       </c>
       <c r="AE5" t="n">
-        <v>3931968.628047196</v>
+        <v>4087776.371247862</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799868365620172e-07</v>
+        <v>1.78532318779029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.83055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3556707.060738853</v>
+        <v>3697644.731605982</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2670.292666076862</v>
+        <v>2774.670353299538</v>
       </c>
       <c r="AB6" t="n">
-        <v>3653.612230724739</v>
+        <v>3796.426387201381</v>
       </c>
       <c r="AC6" t="n">
-        <v>3304.916607301204</v>
+        <v>3434.100781124639</v>
       </c>
       <c r="AD6" t="n">
-        <v>2670292.666076862</v>
+        <v>2774670.353299539</v>
       </c>
       <c r="AE6" t="n">
-        <v>3653612.230724739</v>
+        <v>3796426.387201381</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.002541194135366e-06</v>
+        <v>1.826412329051286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.31944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>3304916.607301204</v>
+        <v>3434100.781124638</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2646.44882542095</v>
+        <v>2750.826512643626</v>
       </c>
       <c r="AB7" t="n">
-        <v>3620.988036023309</v>
+        <v>3763.802192499952</v>
       </c>
       <c r="AC7" t="n">
-        <v>3275.406019953734</v>
+        <v>3404.590193777169</v>
       </c>
       <c r="AD7" t="n">
-        <v>2646448.82542095</v>
+        <v>2750826.512643626</v>
       </c>
       <c r="AE7" t="n">
-        <v>3620988.036023309</v>
+        <v>3763802.192499951</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>1.832869194106586e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.23888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>3275406.019953734</v>
+        <v>3404590.193777169</v>
       </c>
     </row>
     <row r="8">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2663.500586067586</v>
+        <v>2767.878273290263</v>
       </c>
       <c r="AB8" t="n">
-        <v>3644.319007210625</v>
+        <v>3787.133163687268</v>
       </c>
       <c r="AC8" t="n">
-        <v>3296.510315996156</v>
+        <v>3425.694489819591</v>
       </c>
       <c r="AD8" t="n">
-        <v>2663500.586067586</v>
+        <v>2767878.273290263</v>
       </c>
       <c r="AE8" t="n">
-        <v>3644319.007210625</v>
+        <v>3787133.163687268</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>1.832869194106586e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.23888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>3296510.315996156</v>
+        <v>3425694.489819591</v>
       </c>
     </row>
   </sheetData>
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3084.709287630819</v>
+        <v>3207.946387169762</v>
       </c>
       <c r="AB2" t="n">
-        <v>4220.635335105905</v>
+        <v>4389.253771532214</v>
       </c>
       <c r="AC2" t="n">
-        <v>3817.823822422135</v>
+        <v>3970.349551933373</v>
       </c>
       <c r="AD2" t="n">
-        <v>3084709.287630819</v>
+        <v>3207946.387169762</v>
       </c>
       <c r="AE2" t="n">
-        <v>4220635.335105905</v>
+        <v>4389253.771532214</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.832306312210461e-07</v>
+        <v>1.730847459870811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.50416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3817823.822422135</v>
+        <v>3970349.551933373</v>
       </c>
     </row>
     <row r="3">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2166.093366330415</v>
+        <v>2271.554573734634</v>
       </c>
       <c r="AB3" t="n">
-        <v>2963.744505108219</v>
+        <v>3108.041181698954</v>
       </c>
       <c r="AC3" t="n">
-        <v>2680.888889182228</v>
+        <v>2811.414093480683</v>
       </c>
       <c r="AD3" t="n">
-        <v>2166093.366330415</v>
+        <v>2271554.573734634</v>
       </c>
       <c r="AE3" t="n">
-        <v>2963744.505108219</v>
+        <v>3108041.181698954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.035566052962339e-06</v>
+        <v>2.029375803939618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.45555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2680888.889182228</v>
+        <v>2811414.093480683</v>
       </c>
     </row>
     <row r="4">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2168.306554546709</v>
+        <v>2273.767761950927</v>
       </c>
       <c r="AB4" t="n">
-        <v>2966.772686864724</v>
+        <v>3111.06936345546</v>
       </c>
       <c r="AC4" t="n">
-        <v>2683.628065521973</v>
+        <v>2814.153269820428</v>
       </c>
       <c r="AD4" t="n">
-        <v>2168306.554546709</v>
+        <v>2273767.761950927</v>
       </c>
       <c r="AE4" t="n">
-        <v>2966772.686864724</v>
+        <v>3111069.363455459</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038889098901587e-06</v>
+        <v>2.035887903293588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.38333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2683628.065521973</v>
+        <v>2814153.269820428</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15639.66412686651</v>
+        <v>15904.14715475236</v>
       </c>
       <c r="AB2" t="n">
-        <v>21398.87843166538</v>
+        <v>21760.75577858651</v>
       </c>
       <c r="AC2" t="n">
-        <v>19356.59950766094</v>
+        <v>19683.93978848995</v>
       </c>
       <c r="AD2" t="n">
-        <v>15639664.12686651</v>
+        <v>15904147.15475236</v>
       </c>
       <c r="AE2" t="n">
-        <v>21398878.43166538</v>
+        <v>21760755.77858651</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.106910378233996e-07</v>
+        <v>7.065862125773026e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.58472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>19356599.50766094</v>
+        <v>19683939.78848995</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6349.240819252672</v>
+        <v>6501.791165256893</v>
       </c>
       <c r="AB3" t="n">
-        <v>8687.311397637865</v>
+        <v>8896.037511087134</v>
       </c>
       <c r="AC3" t="n">
-        <v>7858.206590565103</v>
+        <v>8047.012176695707</v>
       </c>
       <c r="AD3" t="n">
-        <v>6349240.819252672</v>
+        <v>6501791.165256892</v>
       </c>
       <c r="AE3" t="n">
-        <v>8687311.397637865</v>
+        <v>8896037.511087134</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.885730291838789e-07</v>
+        <v>1.184676956557138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.16805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>7858206.590565103</v>
+        <v>8047012.176695707</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5010.265114026731</v>
+        <v>5142.464047050919</v>
       </c>
       <c r="AB4" t="n">
-        <v>6855.265766308566</v>
+        <v>7036.146178677578</v>
       </c>
       <c r="AC4" t="n">
-        <v>6201.008822997749</v>
+        <v>6364.626262677511</v>
       </c>
       <c r="AD4" t="n">
-        <v>5010265.114026731</v>
+        <v>5142464.047050919</v>
       </c>
       <c r="AE4" t="n">
-        <v>6855265.766308566</v>
+        <v>7036146.178677578</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.896754114011471e-07</v>
+        <v>1.358621705174129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.30277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>6201008.822997749</v>
+        <v>6364626.26267751</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4449.77776769503</v>
+        <v>4581.976611210667</v>
       </c>
       <c r="AB5" t="n">
-        <v>6088.382252100911</v>
+        <v>6269.262542000376</v>
       </c>
       <c r="AC5" t="n">
-        <v>5507.315595058329</v>
+        <v>5670.932923956864</v>
       </c>
       <c r="AD5" t="n">
-        <v>4449777.76769503</v>
+        <v>4581976.611210668</v>
       </c>
       <c r="AE5" t="n">
-        <v>6088382.252100911</v>
+        <v>6269262.542000376</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.427691180389135e-07</v>
+        <v>1.449968429669738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>5507315.595058328</v>
+        <v>5670932.923956865</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4125.468007748999</v>
+        <v>4247.576485629193</v>
       </c>
       <c r="AB6" t="n">
-        <v>5644.647331005892</v>
+        <v>5811.721537487427</v>
       </c>
       <c r="AC6" t="n">
-        <v>5105.930112046763</v>
+        <v>5257.058990751815</v>
       </c>
       <c r="AD6" t="n">
-        <v>4125468.007748999</v>
+        <v>4247576.485629193</v>
       </c>
       <c r="AE6" t="n">
-        <v>5644647.331005892</v>
+        <v>5811721.537487427</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.758218199176358e-07</v>
+        <v>1.506834982102215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.71666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5105930.112046762</v>
+        <v>5257058.990751815</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3910.069974661919</v>
+        <v>4032.00786034152</v>
       </c>
       <c r="AB7" t="n">
-        <v>5349.930239445578</v>
+        <v>5516.771034152268</v>
       </c>
       <c r="AC7" t="n">
-        <v>4839.340406066941</v>
+        <v>4990.258149489341</v>
       </c>
       <c r="AD7" t="n">
-        <v>3910069.974661919</v>
+        <v>4032007.860341521</v>
       </c>
       <c r="AE7" t="n">
-        <v>5349930.239445578</v>
+        <v>5516771.034152268</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.982557804688048e-07</v>
+        <v>1.545432189635571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.12361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>4839340.406066941</v>
+        <v>4990258.149489341</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3733.021890710691</v>
+        <v>3855.045027736312</v>
       </c>
       <c r="AB8" t="n">
-        <v>5107.685240173289</v>
+        <v>5274.642679532628</v>
       </c>
       <c r="AC8" t="n">
-        <v>4620.214929532217</v>
+        <v>4771.23818520533</v>
       </c>
       <c r="AD8" t="n">
-        <v>3733021.890710691</v>
+        <v>3855045.027736312</v>
       </c>
       <c r="AE8" t="n">
-        <v>5107685.24017329</v>
+        <v>5274642.679532628</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.14707351539662e-07</v>
+        <v>1.573736808493366e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.71111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>4620214.929532217</v>
+        <v>4771238.18520533</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3592.331211246278</v>
+        <v>3704.178731290434</v>
       </c>
       <c r="AB9" t="n">
-        <v>4915.186045695346</v>
+        <v>5068.220756984106</v>
       </c>
       <c r="AC9" t="n">
-        <v>4446.087588000938</v>
+        <v>4584.516881229859</v>
       </c>
       <c r="AD9" t="n">
-        <v>3592331.211246278</v>
+        <v>3704178.731290434</v>
       </c>
       <c r="AE9" t="n">
-        <v>4915186.045695347</v>
+        <v>5068220.756984105</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.272703694483166e-07</v>
+        <v>1.595351244712045e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>4446087.588000938</v>
+        <v>4584516.881229859</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3464.184080938138</v>
+        <v>3576.031600982295</v>
       </c>
       <c r="AB10" t="n">
-        <v>4739.849488555351</v>
+        <v>4892.884199844108</v>
       </c>
       <c r="AC10" t="n">
-        <v>4287.484905787987</v>
+        <v>4425.914199016908</v>
       </c>
       <c r="AD10" t="n">
-        <v>3464184.080938138</v>
+        <v>3576031.600982294</v>
       </c>
       <c r="AE10" t="n">
-        <v>4739849.488555351</v>
+        <v>4892884.199844109</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.375899913018543e-07</v>
+        <v>1.613105960177389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.15416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4287484.905787988</v>
+        <v>4425914.199016908</v>
       </c>
     </row>
     <row r="11">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3348.005650953596</v>
+        <v>3469.943447124645</v>
       </c>
       <c r="AB11" t="n">
-        <v>4580.889035219895</v>
+        <v>4747.729707457035</v>
       </c>
       <c r="AC11" t="n">
-        <v>4143.695415016477</v>
+        <v>4294.613047657652</v>
       </c>
       <c r="AD11" t="n">
-        <v>3348005.650953596</v>
+        <v>3469943.447124645</v>
       </c>
       <c r="AE11" t="n">
-        <v>4580889.035219895</v>
+        <v>4747729.707457035</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.45067978152244e-07</v>
+        <v>1.625971696021841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4143695.415016477</v>
+        <v>4294613.047657652</v>
       </c>
     </row>
     <row r="12">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3263.306761194311</v>
+        <v>3385.244557365361</v>
       </c>
       <c r="AB12" t="n">
-        <v>4465.000277599939</v>
+        <v>4631.840949837079</v>
       </c>
       <c r="AC12" t="n">
-        <v>4038.866917772881</v>
+        <v>4189.784550414056</v>
       </c>
       <c r="AD12" t="n">
-        <v>3263306.761194311</v>
+        <v>3385244.557365361</v>
       </c>
       <c r="AE12" t="n">
-        <v>4465000.277599939</v>
+        <v>4631840.949837079</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504521286845244e-07</v>
+        <v>1.635235025829846e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.85555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>4038866.917772881</v>
+        <v>4189784.550414056</v>
       </c>
     </row>
     <row r="13">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3245.843906950188</v>
+        <v>3367.781703121238</v>
       </c>
       <c r="AB13" t="n">
-        <v>4441.106830016372</v>
+        <v>4607.947502253512</v>
       </c>
       <c r="AC13" t="n">
-        <v>4017.253827292026</v>
+        <v>4168.171459933202</v>
       </c>
       <c r="AD13" t="n">
-        <v>3245843.906950188</v>
+        <v>3367781.703121238</v>
       </c>
       <c r="AE13" t="n">
-        <v>4441106.830016373</v>
+        <v>4607947.502253512</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.522468455286181e-07</v>
+        <v>1.638322802432515e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.81388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>4017253.827292026</v>
+        <v>4168171.459933201</v>
       </c>
     </row>
     <row r="14">
@@ -11462,28 +11462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3253.55838141843</v>
+        <v>3375.49617758948</v>
       </c>
       <c r="AB14" t="n">
-        <v>4451.662114322415</v>
+        <v>4618.502786559555</v>
       </c>
       <c r="AC14" t="n">
-        <v>4026.801730078334</v>
+        <v>4177.719362719509</v>
       </c>
       <c r="AD14" t="n">
-        <v>3253558.38141843</v>
+        <v>3375496.17758948</v>
       </c>
       <c r="AE14" t="n">
-        <v>4451662.114322415</v>
+        <v>4618502.786559555</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.520972857916104e-07</v>
+        <v>1.638065487715626e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.81666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>4026801.730078334</v>
+        <v>4177719.362719509</v>
       </c>
     </row>
   </sheetData>
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2443.680708893277</v>
+        <v>2564.154683945033</v>
       </c>
       <c r="AB2" t="n">
-        <v>3343.551753492172</v>
+        <v>3508.389561094663</v>
       </c>
       <c r="AC2" t="n">
-        <v>3024.447866843112</v>
+        <v>3173.553785439331</v>
       </c>
       <c r="AD2" t="n">
-        <v>2443680.708893277</v>
+        <v>2564154.683945032</v>
       </c>
       <c r="AE2" t="n">
-        <v>3343551.753492172</v>
+        <v>3508389.561094663</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.568621833142912e-07</v>
+        <v>1.918183704762991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.98055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>3024447.866843112</v>
+        <v>3173553.785439331</v>
       </c>
     </row>
     <row r="3">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2036.796531719914</v>
+        <v>2148.653031288748</v>
       </c>
       <c r="AB3" t="n">
-        <v>2786.834871820368</v>
+        <v>2939.881869290929</v>
       </c>
       <c r="AC3" t="n">
-        <v>2520.86326300114</v>
+        <v>2659.303669835921</v>
       </c>
       <c r="AD3" t="n">
-        <v>2036796.531719914</v>
+        <v>2148653.031288748</v>
       </c>
       <c r="AE3" t="n">
-        <v>2786834.871820368</v>
+        <v>2939881.869290929</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037406138138726e-06</v>
+        <v>2.079646979574691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.96111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2520863.26300114</v>
+        <v>2659303.669835921</v>
       </c>
     </row>
   </sheetData>
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9638.484386258122</v>
+        <v>9844.498332034163</v>
       </c>
       <c r="AB2" t="n">
-        <v>13187.79955719972</v>
+        <v>13469.67692650436</v>
       </c>
       <c r="AC2" t="n">
-        <v>11929.17447665301</v>
+        <v>12184.14986544857</v>
       </c>
       <c r="AD2" t="n">
-        <v>9638484.386258122</v>
+        <v>9844498.332034163</v>
       </c>
       <c r="AE2" t="n">
-        <v>13187799.55719972</v>
+        <v>13469676.92650436</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.289757065717002e-07</v>
+        <v>9.368552828833437e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.83194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>11929174.47665301</v>
+        <v>12184149.86544857</v>
       </c>
     </row>
     <row r="3">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4846.028607014956</v>
+        <v>4983.428131435367</v>
       </c>
       <c r="AB3" t="n">
-        <v>6630.550131811723</v>
+        <v>6818.546222762947</v>
       </c>
       <c r="AC3" t="n">
-        <v>5997.73973326692</v>
+        <v>6167.793741151922</v>
       </c>
       <c r="AD3" t="n">
-        <v>4846028.607014956</v>
+        <v>4983428.131435366</v>
       </c>
       <c r="AE3" t="n">
-        <v>6630550.131811723</v>
+        <v>6818546.222762947</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.797804727974945e-07</v>
+        <v>1.381049160393877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.69166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5997739.73326692</v>
+        <v>6167793.741151922</v>
       </c>
     </row>
     <row r="4">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3970.899916016634</v>
+        <v>4098.399847838156</v>
       </c>
       <c r="AB4" t="n">
-        <v>5433.160448834715</v>
+        <v>5607.611480452939</v>
       </c>
       <c r="AC4" t="n">
-        <v>4914.627241086306</v>
+        <v>5072.428911090443</v>
       </c>
       <c r="AD4" t="n">
-        <v>3970899.916016634</v>
+        <v>4098399.847838156</v>
       </c>
       <c r="AE4" t="n">
-        <v>5433160.448834714</v>
+        <v>5607611.480452939</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687205386878568e-07</v>
+        <v>1.538568625946279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.85694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>4914627.241086306</v>
+        <v>5072428.911090443</v>
       </c>
     </row>
     <row r="5">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3571.954750487873</v>
+        <v>3689.725771419653</v>
       </c>
       <c r="AB5" t="n">
-        <v>4887.306073139692</v>
+        <v>5048.445579669311</v>
       </c>
       <c r="AC5" t="n">
-        <v>4420.868440896209</v>
+        <v>4566.629019083353</v>
       </c>
       <c r="AD5" t="n">
-        <v>3571954.750487873</v>
+        <v>3689725.771419653</v>
       </c>
       <c r="AE5" t="n">
-        <v>4887306.073139692</v>
+        <v>5048445.579669311</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.14900957515545e-07</v>
+        <v>1.620357579213873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.60277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>4420868.440896209</v>
+        <v>4566629.019083354</v>
       </c>
     </row>
     <row r="6">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3308.714759525877</v>
+        <v>3426.400439603085</v>
       </c>
       <c r="AB6" t="n">
-        <v>4527.129504176695</v>
+        <v>4688.152243584116</v>
       </c>
       <c r="AC6" t="n">
-        <v>4095.066618164065</v>
+        <v>4240.721573319272</v>
       </c>
       <c r="AD6" t="n">
-        <v>3308714.759525877</v>
+        <v>3426400.439603085</v>
       </c>
       <c r="AE6" t="n">
-        <v>4527129.504176695</v>
+        <v>4688152.243584116</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.435110486411161e-07</v>
+        <v>1.671028176524436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>4095066.618164065</v>
+        <v>4240721.573319271</v>
       </c>
     </row>
     <row r="7">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3124.299689018311</v>
+        <v>3232.171206859755</v>
       </c>
       <c r="AB7" t="n">
-        <v>4274.804668889515</v>
+        <v>4422.399238555685</v>
       </c>
       <c r="AC7" t="n">
-        <v>3866.823311016572</v>
+        <v>4000.331662104077</v>
       </c>
       <c r="AD7" t="n">
-        <v>3124299.689018311</v>
+        <v>3232171.206859755</v>
       </c>
       <c r="AE7" t="n">
-        <v>4274804.668889515</v>
+        <v>4422399.238555685</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.629472518514224e-07</v>
+        <v>1.705451136653894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.42777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3866823.311016573</v>
+        <v>4000331.662104077</v>
       </c>
     </row>
     <row r="8">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2965.298148368325</v>
+        <v>3073.169666209768</v>
       </c>
       <c r="AB8" t="n">
-        <v>4057.251746319287</v>
+        <v>4204.846315985456</v>
       </c>
       <c r="AC8" t="n">
-        <v>3670.033334039011</v>
+        <v>3803.541685126515</v>
       </c>
       <c r="AD8" t="n">
-        <v>2965298.148368325</v>
+        <v>3073169.666209769</v>
       </c>
       <c r="AE8" t="n">
-        <v>4057251.746319287</v>
+        <v>4204846.315985456</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.767858285371607e-07</v>
+        <v>1.729960284266069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.10694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>3670033.334039011</v>
+        <v>3803541.685126515</v>
       </c>
     </row>
     <row r="9">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2896.086758129434</v>
+        <v>3013.687097352071</v>
       </c>
       <c r="AB9" t="n">
-        <v>3962.553668803392</v>
+        <v>4123.459641088617</v>
       </c>
       <c r="AC9" t="n">
-        <v>3584.37310813165</v>
+        <v>3729.922440254917</v>
       </c>
       <c r="AD9" t="n">
-        <v>2896086.758129434</v>
+        <v>3013687.097352071</v>
       </c>
       <c r="AE9" t="n">
-        <v>3962553.668803392</v>
+        <v>4123459.641088617</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.819169861846814e-07</v>
+        <v>1.739047945740246e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.99444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>3584373.10813165</v>
+        <v>3729922.440254917</v>
       </c>
     </row>
     <row r="10">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2913.89455933679</v>
+        <v>3031.494898559426</v>
       </c>
       <c r="AB10" t="n">
-        <v>3986.91908804004</v>
+        <v>4147.825060325265</v>
       </c>
       <c r="AC10" t="n">
-        <v>3606.413125953433</v>
+        <v>3751.9624580767</v>
       </c>
       <c r="AD10" t="n">
-        <v>2913894.55933679</v>
+        <v>3031494.898559426</v>
       </c>
       <c r="AE10" t="n">
-        <v>3986919.08804004</v>
+        <v>4147825.060325265</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.817614965589991e-07</v>
+        <v>1.73877256205921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.99861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>3606413.125953433</v>
+        <v>3751962.4580767</v>
       </c>
     </row>
   </sheetData>
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12278.22441989703</v>
+        <v>12508.10423665443</v>
       </c>
       <c r="AB2" t="n">
-        <v>16799.60832833584</v>
+        <v>17114.14003520509</v>
       </c>
       <c r="AC2" t="n">
-        <v>15196.27728787721</v>
+        <v>15480.79053009087</v>
       </c>
       <c r="AD2" t="n">
-        <v>12278224.41989703</v>
+        <v>12508104.23665443</v>
       </c>
       <c r="AE2" t="n">
-        <v>16799608.32833584</v>
+        <v>17114140.03520509</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.667968919746926e-07</v>
+        <v>8.140530192706599e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>15196277.28787721</v>
+        <v>15480790.53009087</v>
       </c>
     </row>
     <row r="3">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5571.449201682292</v>
+        <v>5721.396736235104</v>
       </c>
       <c r="AB3" t="n">
-        <v>7623.102592733585</v>
+        <v>7828.267424727102</v>
       </c>
       <c r="AC3" t="n">
-        <v>6895.56438037449</v>
+        <v>7081.148568753189</v>
       </c>
       <c r="AD3" t="n">
-        <v>5571449.201682292</v>
+        <v>5721396.736235105</v>
       </c>
       <c r="AE3" t="n">
-        <v>7623102.592733585</v>
+        <v>7828267.424727102</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.320362486744118e-07</v>
+        <v>1.276607296865379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.90555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>6895564.380374489</v>
+        <v>7081148.568753188</v>
       </c>
     </row>
     <row r="4">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4484.833435387765</v>
+        <v>4614.861927407498</v>
       </c>
       <c r="AB4" t="n">
-        <v>6136.346963185022</v>
+        <v>6314.257682418641</v>
       </c>
       <c r="AC4" t="n">
-        <v>5550.702621435466</v>
+        <v>5711.633791324684</v>
       </c>
       <c r="AD4" t="n">
-        <v>4484833.435387765</v>
+        <v>4614861.927407498</v>
       </c>
       <c r="AE4" t="n">
-        <v>6136346.963185022</v>
+        <v>6314257.682418641</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.275589808115307e-07</v>
+        <v>1.443190600743546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5550702.621435466</v>
+        <v>5711633.791324684</v>
       </c>
     </row>
     <row r="5">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4014.815604013402</v>
+        <v>4134.756652993289</v>
       </c>
       <c r="AB5" t="n">
-        <v>5493.247830575316</v>
+        <v>5657.356465215238</v>
       </c>
       <c r="AC5" t="n">
-        <v>4968.979967446752</v>
+        <v>5117.426304324548</v>
       </c>
       <c r="AD5" t="n">
-        <v>4014815.604013402</v>
+        <v>4134756.652993289</v>
       </c>
       <c r="AE5" t="n">
-        <v>5493247.830575315</v>
+        <v>5657356.465215238</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.773770564237123e-07</v>
+        <v>1.530068974536465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.11527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>4968979.967446752</v>
+        <v>5117426.304324549</v>
       </c>
     </row>
     <row r="6">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3729.147827568546</v>
+        <v>3849.003535693862</v>
       </c>
       <c r="AB6" t="n">
-        <v>5102.384576070604</v>
+        <v>5266.376443588329</v>
       </c>
       <c r="AC6" t="n">
-        <v>4615.420153371962</v>
+        <v>4763.76086721782</v>
       </c>
       <c r="AD6" t="n">
-        <v>3729147.827568546</v>
+        <v>3849003.535693862</v>
       </c>
       <c r="AE6" t="n">
-        <v>5102384.576070604</v>
+        <v>5266376.443588329</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.081515251505034e-07</v>
+        <v>1.583736960793865e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="AH6" t="n">
-        <v>4615420.153371963</v>
+        <v>4763760.86721782</v>
       </c>
     </row>
     <row r="7">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3519.883729056558</v>
+        <v>3639.824688527894</v>
       </c>
       <c r="AB7" t="n">
-        <v>4816.060204406026</v>
+        <v>4980.168716576401</v>
       </c>
       <c r="AC7" t="n">
-        <v>4356.422177880282</v>
+        <v>4504.868403976854</v>
       </c>
       <c r="AD7" t="n">
-        <v>3519883.729056558</v>
+        <v>3639824.688527894</v>
       </c>
       <c r="AE7" t="n">
-        <v>4816060.204406026</v>
+        <v>4980168.7165764</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.288709694418084e-07</v>
+        <v>1.619869862432511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.78055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>4356422.177880283</v>
+        <v>4504868.403976854</v>
       </c>
     </row>
     <row r="8">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3359.174464579053</v>
+        <v>3469.113321865115</v>
       </c>
       <c r="AB8" t="n">
-        <v>4596.170698755529</v>
+        <v>4746.593893454404</v>
       </c>
       <c r="AC8" t="n">
-        <v>4157.518618032218</v>
+        <v>4293.585634149306</v>
       </c>
       <c r="AD8" t="n">
-        <v>3359174.464579053</v>
+        <v>3469113.321865115</v>
       </c>
       <c r="AE8" t="n">
-        <v>4596170.698755529</v>
+        <v>4746593.893454404</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.445629015153701e-07</v>
+        <v>1.647235221761779e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.40138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>4157518.618032218</v>
+        <v>4293585.634149306</v>
       </c>
     </row>
     <row r="9">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3214.608118348202</v>
+        <v>3324.546975634263</v>
       </c>
       <c r="AB9" t="n">
-        <v>4398.368646025395</v>
+        <v>4548.79184072427</v>
       </c>
       <c r="AC9" t="n">
-        <v>3978.594515597732</v>
+        <v>4114.661531714819</v>
       </c>
       <c r="AD9" t="n">
-        <v>3214608.118348202</v>
+        <v>3324546.975634263</v>
       </c>
       <c r="AE9" t="n">
-        <v>4398368.646025395</v>
+        <v>4548791.84072427</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.561414145016876e-07</v>
+        <v>1.667427137383375e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.13055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>3978594.515597731</v>
+        <v>4114661.531714819</v>
       </c>
     </row>
     <row r="10">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3098.877328969837</v>
+        <v>3218.732947586601</v>
       </c>
       <c r="AB10" t="n">
-        <v>4240.020674315821</v>
+        <v>4404.012419363997</v>
       </c>
       <c r="AC10" t="n">
-        <v>3835.35905206535</v>
+        <v>3983.699655129982</v>
       </c>
       <c r="AD10" t="n">
-        <v>3098877.328969837</v>
+        <v>3218732.947586601</v>
       </c>
       <c r="AE10" t="n">
-        <v>4240020.67431582</v>
+        <v>4404012.419363997</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.642159038210932e-07</v>
+        <v>1.681508341698435e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.94444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>3835359.05206535</v>
+        <v>3983699.655129982</v>
       </c>
     </row>
     <row r="11">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3072.400620073499</v>
+        <v>3192.256238690264</v>
       </c>
       <c r="AB11" t="n">
-        <v>4203.79407313389</v>
+        <v>4367.785818182066</v>
       </c>
       <c r="AC11" t="n">
-        <v>3802.589866855871</v>
+        <v>3950.930469920503</v>
       </c>
       <c r="AD11" t="n">
-        <v>3072400.620073499</v>
+        <v>3192256.238690264</v>
       </c>
       <c r="AE11" t="n">
-        <v>4203794.073133891</v>
+        <v>4367785.818182066</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.661964389371737e-07</v>
+        <v>1.68496222200213e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.90138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>3802589.866855871</v>
+        <v>3950930.469920503</v>
       </c>
     </row>
     <row r="12">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3083.065363057313</v>
+        <v>3202.920981674078</v>
       </c>
       <c r="AB12" t="n">
-        <v>4218.386044979602</v>
+        <v>4382.377790027777</v>
       </c>
       <c r="AC12" t="n">
-        <v>3815.789201388588</v>
+        <v>3964.129804453219</v>
       </c>
       <c r="AD12" t="n">
-        <v>3083065.363057313</v>
+        <v>3202920.981674078</v>
       </c>
       <c r="AE12" t="n">
-        <v>4218386.044979602</v>
+        <v>4382377.790027778</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.66653485502423e-07</v>
+        <v>1.685759271302982e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>3815789.201388588</v>
+        <v>3964129.804453219</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20193.74606086403</v>
+        <v>20493.36080305506</v>
       </c>
       <c r="AB2" t="n">
-        <v>27629.9742456766</v>
+        <v>28039.92035401195</v>
       </c>
       <c r="AC2" t="n">
-        <v>24993.00828258047</v>
+        <v>25363.82970969925</v>
       </c>
       <c r="AD2" t="n">
-        <v>20193746.06086403</v>
+        <v>20493360.80305506</v>
       </c>
       <c r="AE2" t="n">
-        <v>27629974.2456766</v>
+        <v>28039920.35401195</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582153416271389e-07</v>
+        <v>6.089423395504753e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.02638888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>24993008.28258047</v>
+        <v>25363829.70969925</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7174.216280954587</v>
+        <v>7339.615086136177</v>
       </c>
       <c r="AB3" t="n">
-        <v>9816.079219687206</v>
+        <v>10042.38516181697</v>
       </c>
       <c r="AC3" t="n">
-        <v>8879.2463959136</v>
+        <v>9083.954016548876</v>
       </c>
       <c r="AD3" t="n">
-        <v>7174216.280954587</v>
+        <v>7339615.086136176</v>
       </c>
       <c r="AE3" t="n">
-        <v>9816079.219687207</v>
+        <v>10042385.16181697</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.483462402438652e-07</v>
+        <v>1.102145638373582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>8879246.395913601</v>
+        <v>9083954.016548876</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5555.47824773411</v>
+        <v>5700.031610067408</v>
       </c>
       <c r="AB4" t="n">
-        <v>7601.250428952922</v>
+        <v>7799.034716541614</v>
       </c>
       <c r="AC4" t="n">
-        <v>6875.797756435348</v>
+        <v>7054.705789208561</v>
       </c>
       <c r="AD4" t="n">
-        <v>5555478.24773411</v>
+        <v>5700031.610067409</v>
       </c>
       <c r="AE4" t="n">
-        <v>7601250.428952921</v>
+        <v>7799034.716541614</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.543697465300585e-07</v>
+        <v>1.28237857220605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.07222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>6875797.756435348</v>
+        <v>7054705.789208561</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4896.973275156674</v>
+        <v>5031.189212166124</v>
       </c>
       <c r="AB5" t="n">
-        <v>6700.254874283362</v>
+        <v>6883.895040488946</v>
       </c>
       <c r="AC5" t="n">
-        <v>6060.791952948282</v>
+        <v>6226.905759431791</v>
       </c>
       <c r="AD5" t="n">
-        <v>4896973.275156674</v>
+        <v>5031189.212166124</v>
       </c>
       <c r="AE5" t="n">
-        <v>6700254.874283362</v>
+        <v>6883895.040488945</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.109842401780258e-07</v>
+        <v>1.37861945920397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.18194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>6060791.952948282</v>
+        <v>6226905.759431791</v>
       </c>
     </row>
     <row r="6">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4523.407489686178</v>
+        <v>4647.371342226349</v>
       </c>
       <c r="AB6" t="n">
-        <v>6189.125686043283</v>
+        <v>6358.738497987955</v>
       </c>
       <c r="AC6" t="n">
-        <v>5598.444217059535</v>
+        <v>5751.869420285279</v>
       </c>
       <c r="AD6" t="n">
-        <v>4523407.489686177</v>
+        <v>4647371.342226349</v>
       </c>
       <c r="AE6" t="n">
-        <v>6189125.686043283</v>
+        <v>6358738.497987955</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.465704933281768e-07</v>
+        <v>1.439113731031234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.12638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>5598444.217059535</v>
+        <v>5751869.420285279</v>
       </c>
     </row>
     <row r="7">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4284.419427084916</v>
+        <v>4408.297938770515</v>
       </c>
       <c r="AB7" t="n">
-        <v>5862.131675383012</v>
+        <v>6031.627720205486</v>
       </c>
       <c r="AC7" t="n">
-        <v>5302.658055837718</v>
+        <v>5455.977636031521</v>
       </c>
       <c r="AD7" t="n">
-        <v>4284419.427084915</v>
+        <v>4408297.938770516</v>
       </c>
       <c r="AE7" t="n">
-        <v>5862131.675383013</v>
+        <v>6031627.720205486</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.695103920530675e-07</v>
+        <v>1.478110038490132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.4875</v>
       </c>
       <c r="AH7" t="n">
-        <v>5302658.055837718</v>
+        <v>5455977.636031521</v>
       </c>
     </row>
     <row r="8">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4107.423030632285</v>
+        <v>4221.13479870318</v>
       </c>
       <c r="AB8" t="n">
-        <v>5619.957397226599</v>
+        <v>5775.542854910357</v>
       </c>
       <c r="AC8" t="n">
-        <v>5083.596550894825</v>
+        <v>5224.333150862802</v>
       </c>
       <c r="AD8" t="n">
-        <v>4107423.030632285</v>
+        <v>4221134.79870318</v>
       </c>
       <c r="AE8" t="n">
-        <v>5619957.397226599</v>
+        <v>5775542.854910357</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.871564679952909e-07</v>
+        <v>1.508107198073899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.01944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>5083596.550894825</v>
+        <v>5224333.150862802</v>
       </c>
     </row>
     <row r="9">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3948.519795824416</v>
+        <v>4072.483558856036</v>
       </c>
       <c r="AB9" t="n">
-        <v>5402.538981046501</v>
+        <v>5572.151670521624</v>
       </c>
       <c r="AC9" t="n">
-        <v>4886.928243206301</v>
+        <v>5040.353335650818</v>
       </c>
       <c r="AD9" t="n">
-        <v>3948519.795824416</v>
+        <v>4072483.558856037</v>
       </c>
       <c r="AE9" t="n">
-        <v>5402538.981046502</v>
+        <v>5572151.670521623</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.008321768505143e-07</v>
+        <v>1.531354996751319e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.67222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>4886928.243206301</v>
+        <v>5040353.335650817</v>
       </c>
     </row>
     <row r="10">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3830.498572864054</v>
+        <v>3944.125000080377</v>
       </c>
       <c r="AB10" t="n">
-        <v>5241.057137063241</v>
+        <v>5396.525827624801</v>
       </c>
       <c r="AC10" t="n">
-        <v>4740.857999771617</v>
+        <v>4881.488976707655</v>
       </c>
       <c r="AD10" t="n">
-        <v>3830498.572864054</v>
+        <v>3944125.000080377</v>
       </c>
       <c r="AE10" t="n">
-        <v>5241057.137063241</v>
+        <v>5396525.827624802</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.111257211501448e-07</v>
+        <v>1.548853339841849e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.41527777777777</v>
       </c>
       <c r="AH10" t="n">
-        <v>4740857.999771617</v>
+        <v>4881488.976707655</v>
       </c>
     </row>
     <row r="11">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3719.534839408429</v>
+        <v>3833.161266624752</v>
       </c>
       <c r="AB11" t="n">
-        <v>5089.231661574826</v>
+        <v>5244.700352136386</v>
       </c>
       <c r="AC11" t="n">
-        <v>4603.52253457543</v>
+        <v>4744.153511511468</v>
       </c>
       <c r="AD11" t="n">
-        <v>3719534.839408429</v>
+        <v>3833161.266624752</v>
       </c>
       <c r="AE11" t="n">
-        <v>5089231.661574826</v>
+        <v>5244700.352136386</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.196546578555527e-07</v>
+        <v>1.563351966974003e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.20972222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>4603522.53457543</v>
+        <v>4744153.511511467</v>
       </c>
     </row>
     <row r="12">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3620.477652712987</v>
+        <v>3734.10407992931</v>
       </c>
       <c r="AB12" t="n">
-        <v>4953.697248643461</v>
+        <v>5109.165939205022</v>
       </c>
       <c r="AC12" t="n">
-        <v>4480.923335790497</v>
+        <v>4621.554312726534</v>
       </c>
       <c r="AD12" t="n">
-        <v>3620477.652712987</v>
+        <v>3734104.079929309</v>
       </c>
       <c r="AE12" t="n">
-        <v>4953697.248643461</v>
+        <v>5109165.939205023</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.270071894981459e-07</v>
+        <v>1.57585078346724e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.03333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>4480923.335790497</v>
+        <v>4621554.312726534</v>
       </c>
     </row>
     <row r="13">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3512.663537246989</v>
+        <v>3636.541959424038</v>
       </c>
       <c r="AB13" t="n">
-        <v>4806.181219439791</v>
+        <v>4975.677141792717</v>
       </c>
       <c r="AC13" t="n">
-        <v>4347.486029373984</v>
+        <v>4500.805498786559</v>
       </c>
       <c r="AD13" t="n">
-        <v>3512663.537246989</v>
+        <v>3636541.959424038</v>
       </c>
       <c r="AE13" t="n">
-        <v>4806181.219439791</v>
+        <v>4975677.141792716</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.327421641793686e-07</v>
+        <v>1.585599860331964e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.89583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4347486.029373984</v>
+        <v>4500805.498786559</v>
       </c>
     </row>
     <row r="14">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3438.99745112305</v>
+        <v>3562.8758733001</v>
       </c>
       <c r="AB14" t="n">
-        <v>4705.388030486661</v>
+        <v>4874.883952839587</v>
       </c>
       <c r="AC14" t="n">
-        <v>4256.312400910415</v>
+        <v>4409.631870322991</v>
       </c>
       <c r="AD14" t="n">
-        <v>3438997.45112305</v>
+        <v>3562875.8733001</v>
       </c>
       <c r="AE14" t="n">
-        <v>4705388.030486661</v>
+        <v>4874883.952839587</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.370066325320726e-07</v>
+        <v>1.592849173898041e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.79583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4256312.400910415</v>
+        <v>4409631.870322991</v>
       </c>
     </row>
     <row r="15">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3414.218739960726</v>
+        <v>3527.93041852307</v>
       </c>
       <c r="AB15" t="n">
-        <v>4671.484704714781</v>
+        <v>4827.070039928993</v>
       </c>
       <c r="AC15" t="n">
-        <v>4225.644760966588</v>
+        <v>4366.381250153338</v>
       </c>
       <c r="AD15" t="n">
-        <v>3414218.739960726</v>
+        <v>3527930.41852307</v>
       </c>
       <c r="AE15" t="n">
-        <v>4671484.704714782</v>
+        <v>4827070.039928992</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.38771240126295e-07</v>
+        <v>1.595848889856418e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.75694444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>4225644.760966589</v>
+        <v>4366381.250153339</v>
       </c>
     </row>
     <row r="16">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3423.011287750625</v>
+        <v>3536.722966312969</v>
       </c>
       <c r="AB16" t="n">
-        <v>4683.515056500754</v>
+        <v>4839.100391714965</v>
       </c>
       <c r="AC16" t="n">
-        <v>4236.526952862812</v>
+        <v>4377.263442049562</v>
       </c>
       <c r="AD16" t="n">
-        <v>3423011.287750626</v>
+        <v>3536722.966312969</v>
       </c>
       <c r="AE16" t="n">
-        <v>4683515.056500754</v>
+        <v>4839100.391714965</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.386241894934431e-07</v>
+        <v>1.595598913526553e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.75833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>4236526.952862812</v>
+        <v>4377263.442049562</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7555.147736019178</v>
+        <v>7747.054640678544</v>
       </c>
       <c r="AB2" t="n">
-        <v>10337.28644201633</v>
+        <v>10599.8619353064</v>
       </c>
       <c r="AC2" t="n">
-        <v>9350.71033246255</v>
+        <v>9588.225989200022</v>
       </c>
       <c r="AD2" t="n">
-        <v>7555147.736019178</v>
+        <v>7747054.640678545</v>
       </c>
       <c r="AE2" t="n">
-        <v>10337286.44201633</v>
+        <v>10599861.9353064</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.975281083859783e-07</v>
+        <v>1.07748457843711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.98194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>9350710.332462549</v>
+        <v>9588225.989200022</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4165.410031053779</v>
+        <v>4299.838739255363</v>
       </c>
       <c r="AB3" t="n">
-        <v>5699.2977694092</v>
+        <v>5883.229058546665</v>
       </c>
       <c r="AC3" t="n">
-        <v>5155.364789311228</v>
+        <v>5321.741934362592</v>
       </c>
       <c r="AD3" t="n">
-        <v>4165410.031053779</v>
+        <v>4299838.739255363</v>
       </c>
       <c r="AE3" t="n">
-        <v>5699297.769409199</v>
+        <v>5883229.058546665</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.320213010805822e-07</v>
+        <v>1.500331295321109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.55555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>5155364.789311228</v>
+        <v>5321741.934362591</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3470.87506270418</v>
+        <v>3586.087567692006</v>
       </c>
       <c r="AB4" t="n">
-        <v>4749.004384992933</v>
+        <v>4906.64321713428</v>
       </c>
       <c r="AC4" t="n">
-        <v>4295.766071758544</v>
+        <v>4438.360075007806</v>
       </c>
       <c r="AD4" t="n">
-        <v>3470875.062704179</v>
+        <v>3586087.567692006</v>
       </c>
       <c r="AE4" t="n">
-        <v>4749004.384992933</v>
+        <v>4906643.21713428</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.139507408619397e-07</v>
+        <v>1.648069463024813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.17638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4295766.071758544</v>
+        <v>4438360.075007806</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3123.56948624095</v>
+        <v>3229.259185722195</v>
       </c>
       <c r="AB5" t="n">
-        <v>4273.805573235258</v>
+        <v>4418.414882765968</v>
       </c>
       <c r="AC5" t="n">
-        <v>3865.919567649318</v>
+        <v>3996.727567638854</v>
       </c>
       <c r="AD5" t="n">
-        <v>3123569.48624095</v>
+        <v>3229259.185722195</v>
       </c>
       <c r="AE5" t="n">
-        <v>4273805.573235258</v>
+        <v>4418414.882765968</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.565858668064131e-07</v>
+        <v>1.724950684276449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.09722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3865919.567649318</v>
+        <v>3996727.567638854</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2885.448992074207</v>
+        <v>3000.490815352891</v>
       </c>
       <c r="AB6" t="n">
-        <v>3947.998607981512</v>
+        <v>4105.403905878465</v>
       </c>
       <c r="AC6" t="n">
-        <v>3571.207161886455</v>
+        <v>3713.58991907184</v>
       </c>
       <c r="AD6" t="n">
-        <v>2885448.992074206</v>
+        <v>3000490.815352891</v>
       </c>
       <c r="AE6" t="n">
-        <v>3947998.607981512</v>
+        <v>4105403.905878465</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.8251693221294e-07</v>
+        <v>1.771710531530243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.4875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3571207.161886455</v>
+        <v>3713589.91907184</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2743.573245427137</v>
+        <v>2849.177604053811</v>
       </c>
       <c r="AB7" t="n">
-        <v>3753.877952302786</v>
+        <v>3898.3704947113</v>
       </c>
       <c r="AC7" t="n">
-        <v>3395.613109135662</v>
+        <v>3526.31548609326</v>
       </c>
       <c r="AD7" t="n">
-        <v>2743573.245427137</v>
+        <v>2849177.604053811</v>
       </c>
       <c r="AE7" t="n">
-        <v>3753877.952302786</v>
+        <v>3898370.4947113</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.961983532249723e-07</v>
+        <v>1.796381371185619e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.17777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3395613.109135662</v>
+        <v>3526315.486093259</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2742.918137204732</v>
+        <v>2848.522495831406</v>
       </c>
       <c r="AB8" t="n">
-        <v>3752.981604331555</v>
+        <v>3897.47414674007</v>
       </c>
       <c r="AC8" t="n">
-        <v>3394.802307356774</v>
+        <v>3525.504684314371</v>
       </c>
       <c r="AD8" t="n">
-        <v>2742918.137204732</v>
+        <v>2848522.495831406</v>
       </c>
       <c r="AE8" t="n">
-        <v>3752981.604331555</v>
+        <v>3897474.14674007</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.977892161333482e-07</v>
+        <v>1.799250073471127e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.14444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>3394802.307356774</v>
+        <v>3525504.684314371</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5086.588225480694</v>
+        <v>5243.696792262646</v>
       </c>
       <c r="AB2" t="n">
-        <v>6959.694414537919</v>
+        <v>7174.657286749793</v>
       </c>
       <c r="AC2" t="n">
-        <v>6295.470947606617</v>
+        <v>6489.918064996867</v>
       </c>
       <c r="AD2" t="n">
-        <v>5086588.225480693</v>
+        <v>5243696.792262646</v>
       </c>
       <c r="AE2" t="n">
-        <v>6959694.41453792</v>
+        <v>7174657.286749792</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.195353114177657e-07</v>
+        <v>1.342422896868601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>6295470.947606618</v>
+        <v>6489918.064996867</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3164.233192860437</v>
+        <v>3284.420218499056</v>
       </c>
       <c r="AB3" t="n">
-        <v>4329.443450588166</v>
+        <v>4493.888641344291</v>
       </c>
       <c r="AC3" t="n">
-        <v>3916.247444075915</v>
+        <v>4064.998216626543</v>
       </c>
       <c r="AD3" t="n">
-        <v>3164233.192860437</v>
+        <v>3284420.218499057</v>
       </c>
       <c r="AE3" t="n">
-        <v>4329443.450588167</v>
+        <v>4493888.641344291</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.240278434973425e-07</v>
+        <v>1.723940597176259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.90833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3916247.444075915</v>
+        <v>4064998.216626543</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2662.827051284336</v>
+        <v>2773.677105077458</v>
       </c>
       <c r="AB4" t="n">
-        <v>3643.397447205924</v>
+        <v>3795.067381164913</v>
       </c>
       <c r="AC4" t="n">
-        <v>3295.676708384887</v>
+        <v>3432.871476716913</v>
       </c>
       <c r="AD4" t="n">
-        <v>2662827.051284336</v>
+        <v>2773677.105077458</v>
       </c>
       <c r="AE4" t="n">
-        <v>3643397.447205924</v>
+        <v>3795067.381164913</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.954510860632241e-07</v>
+        <v>1.857193537883391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.12222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3295676.708384887</v>
+        <v>3432871.476716913</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2458.439635930661</v>
+        <v>2569.374941069804</v>
       </c>
       <c r="AB5" t="n">
-        <v>3363.745568582628</v>
+        <v>3515.532147194266</v>
       </c>
       <c r="AC5" t="n">
-        <v>3042.714412563531</v>
+        <v>3180.01469314627</v>
       </c>
       <c r="AD5" t="n">
-        <v>2458439.635930661</v>
+        <v>2569374.941069804</v>
       </c>
       <c r="AE5" t="n">
-        <v>3363745.568582627</v>
+        <v>3515532.147194266</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.021302654138114e-06</v>
+        <v>1.905424300645137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.53611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>3042714.412563531</v>
+        <v>3180014.69314627</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2470.87169530986</v>
+        <v>2581.807000449004</v>
       </c>
       <c r="AB6" t="n">
-        <v>3380.755660689001</v>
+        <v>3532.542239300639</v>
       </c>
       <c r="AC6" t="n">
-        <v>3058.101085353086</v>
+        <v>3195.401365935824</v>
       </c>
       <c r="AD6" t="n">
-        <v>2470871.69530986</v>
+        <v>2581807.000449004</v>
       </c>
       <c r="AE6" t="n">
-        <v>3380755.660689001</v>
+        <v>3532542.239300639</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.021634084498048e-06</v>
+        <v>1.906042643757468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.52638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>3058101.085353086</v>
+        <v>3195401.365935824</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3719.201460262641</v>
+        <v>3853.61845910546</v>
       </c>
       <c r="AB2" t="n">
-        <v>5088.775517519907</v>
+        <v>5272.690785396128</v>
       </c>
       <c r="AC2" t="n">
-        <v>4603.109924268911</v>
+        <v>4769.472577105718</v>
       </c>
       <c r="AD2" t="n">
-        <v>3719201.460262641</v>
+        <v>3853618.45910546</v>
       </c>
       <c r="AE2" t="n">
-        <v>5088775.517519907</v>
+        <v>5272690.785396128</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.216387021052312e-07</v>
+        <v>1.580041693475706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>4603109.924268911</v>
+        <v>4769472.577105719</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2464.191863283992</v>
+        <v>2580.589875979254</v>
       </c>
       <c r="AB3" t="n">
-        <v>3371.616019817817</v>
+        <v>3530.876915905386</v>
       </c>
       <c r="AC3" t="n">
-        <v>3049.833718979082</v>
+        <v>3193.894978668118</v>
       </c>
       <c r="AD3" t="n">
-        <v>2464191.863283992</v>
+        <v>2580589.875979254</v>
       </c>
       <c r="AE3" t="n">
-        <v>3371616.019817817</v>
+        <v>3530876.915905386</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.001806087023361e-06</v>
+        <v>1.926510255929903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3049833.718979082</v>
+        <v>3193894.978668118</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2267.840703580937</v>
+        <v>2366.475842200908</v>
       </c>
       <c r="AB4" t="n">
-        <v>3102.959700710278</v>
+        <v>3237.916648845333</v>
       </c>
       <c r="AC4" t="n">
-        <v>2806.817581905664</v>
+        <v>2928.894428323971</v>
       </c>
       <c r="AD4" t="n">
-        <v>2267840.703580937</v>
+        <v>2366475.842200908</v>
       </c>
       <c r="AE4" t="n">
-        <v>3102959.700710278</v>
+        <v>3237916.648845334</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>1.990133883478581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.00833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2806817.581905664</v>
+        <v>2928894.428323971</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2286.08573279996</v>
+        <v>2384.720871419931</v>
       </c>
       <c r="AB5" t="n">
-        <v>3127.923354601627</v>
+        <v>3262.880302736683</v>
       </c>
       <c r="AC5" t="n">
-        <v>2829.398739706331</v>
+        <v>2951.475586124638</v>
       </c>
       <c r="AD5" t="n">
-        <v>2286085.73279996</v>
+        <v>2384720.871419931</v>
       </c>
       <c r="AE5" t="n">
-        <v>3127923.354601627</v>
+        <v>3262880.302736683</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>1.990133883478581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.00833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2829398.73970633</v>
+        <v>2951475.586124638</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1920.185565871285</v>
+        <v>2021.010456381068</v>
       </c>
       <c r="AB2" t="n">
-        <v>2627.282603833542</v>
+        <v>2765.235667109268</v>
       </c>
       <c r="AC2" t="n">
-        <v>2376.538439537962</v>
+        <v>2501.325456072992</v>
       </c>
       <c r="AD2" t="n">
-        <v>1920185.565871285</v>
+        <v>2021010.456381068</v>
       </c>
       <c r="AE2" t="n">
-        <v>2627282.603833543</v>
+        <v>2765235.667109267</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019310263264634e-06</v>
+        <v>2.102428657267712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.07222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2376538.439537962</v>
+        <v>2501325.456072992</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1921.353665815111</v>
+        <v>2030.495192711874</v>
       </c>
       <c r="AB3" t="n">
-        <v>2628.880849709618</v>
+        <v>2778.21310179411</v>
       </c>
       <c r="AC3" t="n">
-        <v>2377.984151070777</v>
+        <v>2513.064342605458</v>
       </c>
       <c r="AD3" t="n">
-        <v>1921353.665815111</v>
+        <v>2030495.192711874</v>
       </c>
       <c r="AE3" t="n">
-        <v>2628880.849709618</v>
+        <v>2778213.10179411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.023174074731882e-06</v>
+        <v>2.110398152177933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.97777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2377984.151070777</v>
+        <v>2513064.342605458</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10877.71919203862</v>
+        <v>11105.39836678921</v>
       </c>
       <c r="AB2" t="n">
-        <v>14883.37528964982</v>
+        <v>15194.89598103989</v>
       </c>
       <c r="AC2" t="n">
-        <v>13462.9268409535</v>
+        <v>13744.71643477932</v>
       </c>
       <c r="AD2" t="n">
-        <v>10877719.19203862</v>
+        <v>11105398.36678921</v>
       </c>
       <c r="AE2" t="n">
-        <v>14883375.28964982</v>
+        <v>15194895.98103989</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.969992436632169e-07</v>
+        <v>8.732080656015714e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.99583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>13462926.8409535</v>
+        <v>13744716.43477932</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5210.996292400314</v>
+        <v>5349.654204636918</v>
       </c>
       <c r="AB3" t="n">
-        <v>7129.915020193909</v>
+        <v>7319.6328928714</v>
       </c>
       <c r="AC3" t="n">
-        <v>6449.445937564913</v>
+        <v>6621.057402744766</v>
       </c>
       <c r="AD3" t="n">
-        <v>5210996.292400314</v>
+        <v>5349654.204636917</v>
       </c>
       <c r="AE3" t="n">
-        <v>7129915.020193909</v>
+        <v>7319632.8928714</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.551926587922813e-07</v>
+        <v>1.326843710827403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6449445.937564913</v>
+        <v>6621057.402744766</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4234.352418422012</v>
+        <v>4363.014763833857</v>
       </c>
       <c r="AB4" t="n">
-        <v>5793.627785329893</v>
+        <v>5969.669282504463</v>
       </c>
       <c r="AC4" t="n">
-        <v>5240.692080905455</v>
+        <v>5399.932424665471</v>
       </c>
       <c r="AD4" t="n">
-        <v>4234352.418422013</v>
+        <v>4363014.763833857</v>
       </c>
       <c r="AE4" t="n">
-        <v>5793627.785329893</v>
+        <v>5969669.282504463</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.473606299855527e-07</v>
+        <v>1.488779200392524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.22083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5240692.080905455</v>
+        <v>5399932.424665471</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3792.876979672848</v>
+        <v>3921.539235576141</v>
       </c>
       <c r="AB5" t="n">
-        <v>5189.581613511476</v>
+        <v>5365.622988216498</v>
       </c>
       <c r="AC5" t="n">
-        <v>4694.295227941285</v>
+        <v>4853.535460920075</v>
       </c>
       <c r="AD5" t="n">
-        <v>3792876.979672848</v>
+        <v>3921539.235576141</v>
       </c>
       <c r="AE5" t="n">
-        <v>5189581.613511477</v>
+        <v>5365622.988216498</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.953679872681915e-07</v>
+        <v>1.573126233354657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>4694295.227941285</v>
+        <v>4853535.460920075</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3528.466992139489</v>
+        <v>3637.479567320101</v>
       </c>
       <c r="AB6" t="n">
-        <v>4827.804203622935</v>
+        <v>4976.960018280452</v>
       </c>
       <c r="AC6" t="n">
-        <v>4367.045346294735</v>
+        <v>4501.965939342833</v>
       </c>
       <c r="AD6" t="n">
-        <v>3528466.992139489</v>
+        <v>3637479.567320101</v>
       </c>
       <c r="AE6" t="n">
-        <v>4827804.203622935</v>
+        <v>4976960.018280451</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.25372585569841e-07</v>
+        <v>1.625843128955991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.09305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>4367045.346294736</v>
+        <v>4501965.939342833</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3326.912818456091</v>
+        <v>3445.750189243769</v>
       </c>
       <c r="AB7" t="n">
-        <v>4552.028891246714</v>
+        <v>4714.627424693208</v>
       </c>
       <c r="AC7" t="n">
-        <v>4117.58964267863</v>
+        <v>4264.670000301461</v>
       </c>
       <c r="AD7" t="n">
-        <v>3326912.818456091</v>
+        <v>3445750.189243768</v>
       </c>
       <c r="AE7" t="n">
-        <v>4552028.891246714</v>
+        <v>4714627.424693208</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.455295208391542e-07</v>
+        <v>1.661258069077912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.60277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>4117589.64267863</v>
+        <v>4264670.000301461</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3165.576487408737</v>
+        <v>3274.503721734779</v>
       </c>
       <c r="AB8" t="n">
-        <v>4331.281405451125</v>
+        <v>4480.320452986443</v>
       </c>
       <c r="AC8" t="n">
-        <v>3917.909987106338</v>
+        <v>4052.724957122497</v>
       </c>
       <c r="AD8" t="n">
-        <v>3165576.487408737</v>
+        <v>3274503.721734779</v>
       </c>
       <c r="AE8" t="n">
-        <v>4331281.405451125</v>
+        <v>4480320.452986443</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.601471456527782e-07</v>
+        <v>1.686940659242664e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.25833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3917909.987106338</v>
+        <v>4052724.957122497</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3026.812070719035</v>
+        <v>3135.739305045076</v>
       </c>
       <c r="AB9" t="n">
-        <v>4141.417808682258</v>
+        <v>4290.456856217576</v>
       </c>
       <c r="AC9" t="n">
-        <v>3746.166705537866</v>
+        <v>3880.981675554026</v>
       </c>
       <c r="AD9" t="n">
-        <v>3026812.070719034</v>
+        <v>3135739.305045076</v>
       </c>
       <c r="AE9" t="n">
-        <v>4141417.808682257</v>
+        <v>4290456.856217576</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.71071896829276e-07</v>
+        <v>1.706135016102637e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.00694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>3746166.705537866</v>
+        <v>3880981.675554026</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2981.344233019037</v>
+        <v>3100.096262952143</v>
       </c>
       <c r="AB10" t="n">
-        <v>4079.206707241686</v>
+        <v>4241.688473565983</v>
       </c>
       <c r="AC10" t="n">
-        <v>3689.892944304957</v>
+        <v>3836.867678895848</v>
       </c>
       <c r="AD10" t="n">
-        <v>2981344.233019037</v>
+        <v>3100096.262952143</v>
       </c>
       <c r="AE10" t="n">
-        <v>4079206.707241686</v>
+        <v>4241688.473565984</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.711541877189953e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3689892.944304957</v>
+        <v>3836867.678895848</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3000.186079771166</v>
+        <v>3118.938109704272</v>
       </c>
       <c r="AB11" t="n">
-        <v>4104.986953211564</v>
+        <v>4267.46871953586</v>
       </c>
       <c r="AC11" t="n">
-        <v>3713.212759782271</v>
+        <v>3860.187494373161</v>
       </c>
       <c r="AD11" t="n">
-        <v>3000186.079771166</v>
+        <v>3118938.109704272</v>
       </c>
       <c r="AE11" t="n">
-        <v>4104986.953211564</v>
+        <v>4267468.71953586</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.711541877189953e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3713212.759782271</v>
+        <v>3860187.494373161</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17733.5549001396</v>
+        <v>18020.60560805808</v>
       </c>
       <c r="AB2" t="n">
-        <v>24263.83216359913</v>
+        <v>24656.5876059567</v>
       </c>
       <c r="AC2" t="n">
-        <v>21948.12607640664</v>
+        <v>22303.39749058132</v>
       </c>
       <c r="AD2" t="n">
-        <v>17733554.9001396</v>
+        <v>18020605.60805808</v>
       </c>
       <c r="AE2" t="n">
-        <v>24263832.16359913</v>
+        <v>24656587.6059567</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840290718736035e-07</v>
+        <v>6.566469157841423e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.63194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>21948126.07640664</v>
+        <v>22303397.49058132</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6750.10698368514</v>
+        <v>6914.148151189217</v>
       </c>
       <c r="AB3" t="n">
-        <v>9235.794168781431</v>
+        <v>9460.242531146072</v>
       </c>
       <c r="AC3" t="n">
-        <v>8354.342935831111</v>
+        <v>8557.37026150692</v>
       </c>
       <c r="AD3" t="n">
-        <v>6750106.98368514</v>
+        <v>6914148.151189217</v>
       </c>
       <c r="AE3" t="n">
-        <v>9235794.168781431</v>
+        <v>9460242.531146072</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679733470233913e-07</v>
+        <v>1.142159982860062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>8354342.935831112</v>
+        <v>8557370.261506919</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5278.867368065554</v>
+        <v>5422.392722024801</v>
       </c>
       <c r="AB4" t="n">
-        <v>7222.779220179629</v>
+        <v>7419.156941358416</v>
       </c>
       <c r="AC4" t="n">
-        <v>6533.447308639717</v>
+        <v>6711.083015727056</v>
       </c>
       <c r="AD4" t="n">
-        <v>5278867.368065554</v>
+        <v>5422392.7220248</v>
       </c>
       <c r="AE4" t="n">
-        <v>7222779.22017963</v>
+        <v>7419156.941358415</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.714684405244628e-07</v>
+        <v>1.31912505900575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6533447.308639716</v>
+        <v>6711083.015727055</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4661.753550872141</v>
+        <v>4795.020998058973</v>
       </c>
       <c r="AB5" t="n">
-        <v>6378.416870355394</v>
+        <v>6560.759270941254</v>
       </c>
       <c r="AC5" t="n">
-        <v>5769.669716412737</v>
+        <v>5934.609614205843</v>
       </c>
       <c r="AD5" t="n">
-        <v>4661753.550872141</v>
+        <v>4795020.998058974</v>
       </c>
       <c r="AE5" t="n">
-        <v>6378416.870355394</v>
+        <v>6560759.270941254</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.27071105371027e-07</v>
+        <v>1.414199419399207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>5769669.716412737</v>
+        <v>5934609.614205843</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4320.565552352834</v>
+        <v>4453.747658685093</v>
       </c>
       <c r="AB6" t="n">
-        <v>5911.588398629084</v>
+        <v>6093.814032092744</v>
       </c>
       <c r="AC6" t="n">
-        <v>5347.394698830128</v>
+        <v>5512.228973591292</v>
       </c>
       <c r="AD6" t="n">
-        <v>4320565.552352834</v>
+        <v>4453747.658685093</v>
       </c>
       <c r="AE6" t="n">
-        <v>5911588.398629083</v>
+        <v>6093814.032092744</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.608775255977381e-07</v>
+        <v>1.472004630518429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.92083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>5347394.698830128</v>
+        <v>5512228.973591292</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4093.750446957372</v>
+        <v>4216.674736025766</v>
       </c>
       <c r="AB7" t="n">
-        <v>5601.249965050759</v>
+        <v>5769.440400391039</v>
       </c>
       <c r="AC7" t="n">
-        <v>5066.674529789803</v>
+        <v>5218.813106037961</v>
       </c>
       <c r="AD7" t="n">
-        <v>4093750.446957372</v>
+        <v>4216674.736025766</v>
       </c>
       <c r="AE7" t="n">
-        <v>5601249.965050759</v>
+        <v>5769440.400391039</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843047817197572e-07</v>
+        <v>1.512062627697539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.29027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>5066674.529789804</v>
+        <v>5218813.106037961</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3912.251622468963</v>
+        <v>4035.261162883377</v>
       </c>
       <c r="AB8" t="n">
-        <v>5352.915266222684</v>
+        <v>5521.222346215616</v>
       </c>
       <c r="AC8" t="n">
-        <v>4842.040546077951</v>
+        <v>4994.28463457682</v>
       </c>
       <c r="AD8" t="n">
-        <v>3912251.622468962</v>
+        <v>4035261.162883377</v>
       </c>
       <c r="AE8" t="n">
-        <v>5352915.266222685</v>
+        <v>5521222.346215616</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.007631705143401e-07</v>
+        <v>1.540204638374002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.86111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>4842040.546077951</v>
+        <v>4994284.63457682</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3777.962988815392</v>
+        <v>3900.972529229807</v>
       </c>
       <c r="AB9" t="n">
-        <v>5169.175633261464</v>
+        <v>5337.482713254397</v>
       </c>
       <c r="AC9" t="n">
-        <v>4675.836765806362</v>
+        <v>4828.080854305231</v>
       </c>
       <c r="AD9" t="n">
-        <v>3777962.988815392</v>
+        <v>3900972.529229807</v>
       </c>
       <c r="AE9" t="n">
-        <v>5169175.633261465</v>
+        <v>5337482.713254397</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.133664412128947e-07</v>
+        <v>1.561754826729852e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.54722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>4675836.765806362</v>
+        <v>4828080.854305231</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3656.14610560984</v>
+        <v>3768.89782876039</v>
       </c>
       <c r="AB10" t="n">
-        <v>5002.500399478022</v>
+        <v>5156.772281347575</v>
       </c>
       <c r="AC10" t="n">
-        <v>4525.068782405058</v>
+        <v>4664.61717239092</v>
       </c>
       <c r="AD10" t="n">
-        <v>3656146.10560984</v>
+        <v>3768897.828760391</v>
       </c>
       <c r="AE10" t="n">
-        <v>5002500.399478022</v>
+        <v>5156772.281347575</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.235973315446625e-07</v>
+        <v>1.579248509042248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.29722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>4525068.782405058</v>
+        <v>4664617.17239092</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3540.778164862532</v>
+        <v>3653.529888013083</v>
       </c>
       <c r="AB11" t="n">
-        <v>4844.648893273213</v>
+        <v>4998.920775142765</v>
       </c>
       <c r="AC11" t="n">
-        <v>4382.28240240646</v>
+        <v>4521.830792392324</v>
       </c>
       <c r="AD11" t="n">
-        <v>3540778.164862532</v>
+        <v>3653529.888013083</v>
       </c>
       <c r="AE11" t="n">
-        <v>4844648.893273213</v>
+        <v>4998920.775142765</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.323454841471887e-07</v>
+        <v>1.594206875077485e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.0875</v>
       </c>
       <c r="AH11" t="n">
-        <v>4382282.402406461</v>
+        <v>4521830.792392324</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3427.585638984987</v>
+        <v>3550.509838544831</v>
       </c>
       <c r="AB12" t="n">
-        <v>4689.773885665742</v>
+        <v>4857.964198536476</v>
       </c>
       <c r="AC12" t="n">
-        <v>4242.188448156616</v>
+        <v>4394.326913623546</v>
       </c>
       <c r="AD12" t="n">
-        <v>3427585.638984987</v>
+        <v>3550509.838544831</v>
       </c>
       <c r="AE12" t="n">
-        <v>4689773.885665743</v>
+        <v>4857964.198536476</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.390178039287763e-07</v>
+        <v>1.6056157983247e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.92916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>4242188.448156616</v>
+        <v>4394326.913623546</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3343.298543863938</v>
+        <v>3466.222743423783</v>
       </c>
       <c r="AB13" t="n">
-        <v>4574.448563636919</v>
+        <v>4742.638876507652</v>
       </c>
       <c r="AC13" t="n">
-        <v>4137.86961300212</v>
+        <v>4290.008078469051</v>
       </c>
       <c r="AD13" t="n">
-        <v>3343298.543863939</v>
+        <v>3466222.743423783</v>
       </c>
       <c r="AE13" t="n">
-        <v>4574448.563636919</v>
+        <v>4742638.876507652</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.440591122081982e-07</v>
+        <v>1.61423587366704e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.8125</v>
       </c>
       <c r="AH13" t="n">
-        <v>4137869.61300212</v>
+        <v>4290008.078469051</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3328.279316359873</v>
+        <v>3451.203515919717</v>
       </c>
       <c r="AB14" t="n">
-        <v>4553.898593964301</v>
+        <v>4722.088906835034</v>
       </c>
       <c r="AC14" t="n">
-        <v>4119.280903592995</v>
+        <v>4271.419369059926</v>
       </c>
       <c r="AD14" t="n">
-        <v>3328279.316359873</v>
+        <v>3451203.515919717</v>
       </c>
       <c r="AE14" t="n">
-        <v>4553898.593964301</v>
+        <v>4722088.906835034</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.452453023915915e-07</v>
+        <v>1.616264126688767e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.7875</v>
       </c>
       <c r="AH14" t="n">
-        <v>4119280.903592995</v>
+        <v>4271419.369059926</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3336.129429840065</v>
+        <v>3448.966404336637</v>
       </c>
       <c r="AB15" t="n">
-        <v>4564.639465550466</v>
+        <v>4719.027992072667</v>
       </c>
       <c r="AC15" t="n">
-        <v>4128.996681469884</v>
+        <v>4268.650583706458</v>
       </c>
       <c r="AD15" t="n">
-        <v>3336129.429840066</v>
+        <v>3448966.404336637</v>
       </c>
       <c r="AE15" t="n">
-        <v>4564639.465550466</v>
+        <v>4719027.992072667</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.458383974832882e-07</v>
+        <v>1.617278253199631e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.77361111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>4128996.681469883</v>
+        <v>4268650.583706458</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1762.366725580306</v>
+        <v>1876.127131914175</v>
       </c>
       <c r="AB2" t="n">
-        <v>2411.347904071578</v>
+        <v>2566.9999107725</v>
       </c>
       <c r="AC2" t="n">
-        <v>2181.212244455025</v>
+        <v>2322.009042095374</v>
       </c>
       <c r="AD2" t="n">
-        <v>1762366.725580306</v>
+        <v>1876127.131914175</v>
       </c>
       <c r="AE2" t="n">
-        <v>2411347.904071578</v>
+        <v>2566999.9107725</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.752878107186671e-07</v>
+        <v>2.090490986632859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2181212.244455025</v>
+        <v>2322009.042095374</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5841.680868560998</v>
+        <v>6001.111016137347</v>
       </c>
       <c r="AB2" t="n">
-        <v>7992.845481136799</v>
+        <v>8210.984842612479</v>
       </c>
       <c r="AC2" t="n">
-        <v>7230.01952644589</v>
+        <v>7427.339973422841</v>
       </c>
       <c r="AD2" t="n">
-        <v>5841680.868560998</v>
+        <v>6001111.016137348</v>
       </c>
       <c r="AE2" t="n">
-        <v>7992845.481136799</v>
+        <v>8210984.84261248</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.758976431508589e-07</v>
+        <v>1.245295808141274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7230019.52644589</v>
+        <v>7427339.973422841</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3502.515077582535</v>
+        <v>3624.261657057975</v>
       </c>
       <c r="AB3" t="n">
-        <v>4792.295649208442</v>
+        <v>4958.874690326764</v>
       </c>
       <c r="AC3" t="n">
-        <v>4334.925678476995</v>
+        <v>4485.60664970613</v>
       </c>
       <c r="AD3" t="n">
-        <v>3502515.077582534</v>
+        <v>3624261.657057975</v>
       </c>
       <c r="AE3" t="n">
-        <v>4792295.649208442</v>
+        <v>4958874.690326764</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.909634068690712e-07</v>
+        <v>1.641539968402704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4334925.678476995</v>
+        <v>4485606.64970613</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2942.276934457294</v>
+        <v>3054.645269957654</v>
       </c>
       <c r="AB4" t="n">
-        <v>4025.753105821934</v>
+        <v>4179.500419794627</v>
       </c>
       <c r="AC4" t="n">
-        <v>3641.540879582108</v>
+        <v>3780.614765694951</v>
       </c>
       <c r="AD4" t="n">
-        <v>2942276.934457294</v>
+        <v>3054645.269957654</v>
       </c>
       <c r="AE4" t="n">
-        <v>4025753.105821934</v>
+        <v>4179500.419794627</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.659179896683571e-07</v>
+        <v>1.779638730407257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.48194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>3641540.879582108</v>
+        <v>3780614.765694951</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2631.006290043363</v>
+        <v>2743.459876889744</v>
       </c>
       <c r="AB5" t="n">
-        <v>3599.858877843114</v>
+        <v>3753.722836468457</v>
       </c>
       <c r="AC5" t="n">
-        <v>3256.293398975299</v>
+        <v>3395.472797338855</v>
       </c>
       <c r="AD5" t="n">
-        <v>2631006.290043363</v>
+        <v>2743459.876889744</v>
       </c>
       <c r="AE5" t="n">
-        <v>3599858.877843115</v>
+        <v>3753722.836468457</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.004293429663634e-06</v>
+        <v>1.850342889603487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.58194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>3256293.398975299</v>
+        <v>3395472.797338855</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2553.343270722898</v>
+        <v>2656.41870310275</v>
       </c>
       <c r="AB6" t="n">
-        <v>3493.596908558249</v>
+        <v>3634.629262507511</v>
       </c>
       <c r="AC6" t="n">
-        <v>3160.172922899374</v>
+        <v>3287.745346927866</v>
       </c>
       <c r="AD6" t="n">
-        <v>2553343.270722898</v>
+        <v>2656418.70310275</v>
       </c>
       <c r="AE6" t="n">
-        <v>3493596.908558249</v>
+        <v>3634629.262507511</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013928114598619e-06</v>
+        <v>1.868094146593179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.36805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>3160172.922899374</v>
+        <v>3287745.346927866</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2571.116093856888</v>
+        <v>2674.19152623674</v>
       </c>
       <c r="AB7" t="n">
-        <v>3517.914469251793</v>
+        <v>3658.946823201055</v>
       </c>
       <c r="AC7" t="n">
-        <v>3182.169649730237</v>
+        <v>3309.742073758728</v>
       </c>
       <c r="AD7" t="n">
-        <v>2571116.093856888</v>
+        <v>2674191.52623674</v>
       </c>
       <c r="AE7" t="n">
-        <v>3517914.469251793</v>
+        <v>3658946.823201055</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01409141434328e-06</v>
+        <v>1.868395015355716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.36666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3182169.649730237</v>
+        <v>3309742.073758728</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8552.277446067346</v>
+        <v>8746.467390030824</v>
       </c>
       <c r="AB2" t="n">
-        <v>11701.60330156245</v>
+        <v>11967.30254994898</v>
       </c>
       <c r="AC2" t="n">
-        <v>10584.81870576427</v>
+        <v>10825.15999079602</v>
       </c>
       <c r="AD2" t="n">
-        <v>8552277.446067346</v>
+        <v>8746467.390030824</v>
       </c>
       <c r="AE2" t="n">
-        <v>11701603.30156245</v>
+        <v>11967302.54994898</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.619137572717544e-07</v>
+        <v>1.003817919866153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.8625</v>
       </c>
       <c r="AH2" t="n">
-        <v>10584818.70576427</v>
+        <v>10825159.99079602</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4509.821766328421</v>
+        <v>4645.643873500464</v>
       </c>
       <c r="AB3" t="n">
-        <v>6170.537099985389</v>
+        <v>6356.374899066657</v>
       </c>
       <c r="AC3" t="n">
-        <v>5581.629699565762</v>
+        <v>5749.731399927698</v>
       </c>
       <c r="AD3" t="n">
-        <v>4509821.766328421</v>
+        <v>4645643.873500464</v>
       </c>
       <c r="AE3" t="n">
-        <v>6170537.099985389</v>
+        <v>6356374.899066657</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.049799768414613e-07</v>
+        <v>1.438037982572664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>5581629.699565762</v>
+        <v>5749731.399927697</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3720.689448885474</v>
+        <v>3846.883043162634</v>
       </c>
       <c r="AB4" t="n">
-        <v>5090.811449199092</v>
+        <v>5263.475092157571</v>
       </c>
       <c r="AC4" t="n">
-        <v>4604.951549486083</v>
+        <v>4761.136416695544</v>
       </c>
       <c r="AD4" t="n">
-        <v>3720689.448885474</v>
+        <v>3846883.043162634</v>
       </c>
       <c r="AE4" t="n">
-        <v>5090811.449199092</v>
+        <v>5263475.092157572</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.908235446843202e-07</v>
+        <v>1.591391251807952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4604951.549486083</v>
+        <v>4761136.416695544</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3350.188767082544</v>
+        <v>3466.58334577278</v>
       </c>
       <c r="AB5" t="n">
-        <v>4583.876071019808</v>
+        <v>4743.132268550203</v>
       </c>
       <c r="AC5" t="n">
-        <v>4146.397372311977</v>
+        <v>4290.454381867542</v>
       </c>
       <c r="AD5" t="n">
-        <v>3350188.767082544</v>
+        <v>3466583.34577278</v>
       </c>
       <c r="AE5" t="n">
-        <v>4583876.071019809</v>
+        <v>4743132.268550203</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.350031098195645e-07</v>
+        <v>1.670314820773366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.35277777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>4146397.372311977</v>
+        <v>4290454.381867542</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3098.389357616377</v>
+        <v>3214.869187652635</v>
       </c>
       <c r="AB6" t="n">
-        <v>4239.35301038224</v>
+        <v>4398.725852565284</v>
       </c>
       <c r="AC6" t="n">
-        <v>3834.755109040519</v>
+        <v>3978.917630846795</v>
       </c>
       <c r="AD6" t="n">
-        <v>3098389.357616377</v>
+        <v>3214869.187652634</v>
       </c>
       <c r="AE6" t="n">
-        <v>4239353.010382241</v>
+        <v>4398725.852565284</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.628315191752166e-07</v>
+        <v>1.720028243217772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.67777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>3834755.109040519</v>
+        <v>3978917.630846796</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2912.607220065519</v>
+        <v>3019.373375369424</v>
       </c>
       <c r="AB7" t="n">
-        <v>3985.157693655686</v>
+        <v>4131.239857532842</v>
       </c>
       <c r="AC7" t="n">
-        <v>3604.819836576989</v>
+        <v>3736.960123761307</v>
       </c>
       <c r="AD7" t="n">
-        <v>2912607.220065518</v>
+        <v>3019373.375369424</v>
       </c>
       <c r="AE7" t="n">
-        <v>3985157.693655686</v>
+        <v>4131239.857532842</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.752608791260434e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.25555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>3604819.836576989</v>
+        <v>3736960.123761307</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2821.98851738882</v>
+        <v>2928.754672692725</v>
       </c>
       <c r="AB8" t="n">
-        <v>3861.169186838409</v>
+        <v>4007.251350715564</v>
       </c>
       <c r="AC8" t="n">
-        <v>3492.664618831395</v>
+        <v>3624.804906015713</v>
       </c>
       <c r="AD8" t="n">
-        <v>2821988.51738882</v>
+        <v>2928754.672692725</v>
       </c>
       <c r="AE8" t="n">
-        <v>3861169.186838409</v>
+        <v>4007251.350715564</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.890877020136002e-07</v>
+        <v>1.766932997727466e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.07777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>3492664.618831395</v>
+        <v>3624804.906015713</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2829.933059965058</v>
+        <v>2936.699215268965</v>
       </c>
       <c r="AB9" t="n">
-        <v>3872.039260479703</v>
+        <v>4018.121424356858</v>
       </c>
       <c r="AC9" t="n">
-        <v>3502.497267900607</v>
+        <v>3634.637555084926</v>
       </c>
       <c r="AD9" t="n">
-        <v>2829933.059965058</v>
+        <v>2936699.215268965</v>
       </c>
       <c r="AE9" t="n">
-        <v>3872039.260479703</v>
+        <v>4018121.424356858</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.898738152722345e-07</v>
+        <v>1.768337331694823e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.05833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3502497.267900607</v>
+        <v>3634637.555084926</v>
       </c>
     </row>
   </sheetData>
